--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C18551-86E4-45A6-B2C7-38BEE48999C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F592390-7771-4FCA-BC5A-D32B03F1F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="314">
   <si>
     <t>Set</t>
   </si>
@@ -952,6 +952,27 @@
   </si>
   <si>
     <t>Beneath CZVR Airspace</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>HCF vARTCC</t>
+  </si>
+  <si>
+    <t>Joshua Cramer</t>
+  </si>
+  <si>
+    <t>grenademadness</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>Guam</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2464,87 +2485,91 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>189</v>
@@ -2556,10 +2581,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>189</v>
@@ -2571,10 +2596,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>189</v>
@@ -2586,10 +2611,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>189</v>
@@ -2601,87 +2626,87 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>189</v>
@@ -2691,95 +2716,93 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>189</v>
@@ -2791,177 +2814,209 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>286</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F592390-7771-4FCA-BC5A-D32B03F1F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D36860-AE5F-4CE5-A7D9-3B3CC203D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="319">
   <si>
     <t>Set</t>
   </si>
@@ -63,9 +63,6 @@
     <t>car</t>
   </si>
   <si>
-    <t>dg</t>
-  </si>
-  <si>
     <t>dt</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>gm</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>gv</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>Falkland Islands/Islas Malvinas</t>
   </si>
   <si>
-    <t>Accra Oceanic</t>
-  </si>
-  <si>
     <t>Tunis</t>
   </si>
   <si>
@@ -432,12 +423,6 @@
     <t>Canarias</t>
   </si>
   <si>
-    <t>Dakar Oceanic</t>
-  </si>
-  <si>
-    <t>Sal (High Only)</t>
-  </si>
-  <si>
     <t>Dar-Es-Salaam</t>
   </si>
   <si>
@@ -873,9 +858,6 @@
     <t>Bernardo Reis</t>
   </si>
   <si>
-    <t>Disputed Territory</t>
-  </si>
-  <si>
     <t>FIR Did Not Respond</t>
   </si>
   <si>
@@ -973,6 +955,39 @@
   </si>
   <si>
     <t>Guam</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>Kano</t>
+  </si>
+  <si>
+    <t>dg-dx</t>
+  </si>
+  <si>
+    <t>Accra, Lome</t>
+  </si>
+  <si>
+    <t>fc-fk-fo</t>
+  </si>
+  <si>
+    <t>Brazzaville, Douala, Libreville</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>di-ga-gl-go-gq</t>
+  </si>
+  <si>
+    <t>Abidjan, Bamako, Dakar, Nouakchott, Roberts</t>
+  </si>
+  <si>
+    <t>VATAdria</t>
+  </si>
+  <si>
+    <t>Ukraine &amp; Caucasus Shared Control</t>
   </si>
 </sst>
 </file>
@@ -1330,16 +1345,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="34.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.6328125" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.36328125" customWidth="1"/>
     <col min="5" max="5" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
@@ -1370,13 +1385,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>302</v>
+        <v>317</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1384,13 +1399,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1399,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1416,1607 +1431,1644 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" t="s">
-        <v>266</v>
+        <v>235</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>305</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>305</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E89" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E94" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D89:E89"/>
+  <mergeCells count="27">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D86:E86"/>
     <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D36860-AE5F-4CE5-A7D9-3B3CC203D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BB553-2162-4F50-84DE-C56545673139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="320">
   <si>
     <t>Set</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>Ukraine &amp; Caucasus Shared Control</t>
+  </si>
+  <si>
+    <t>miguelalbano</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1351,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1455,7 +1458,7 @@
         <v>244</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1472,7 +1475,7 @@
         <v>244</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1489,7 +1492,7 @@
         <v>244</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1759,7 +1762,7 @@
         <v>244</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1776,7 +1779,7 @@
         <v>244</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1793,7 +1796,7 @@
         <v>244</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1810,7 +1813,7 @@
         <v>244</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1827,7 +1830,7 @@
         <v>244</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1844,7 +1847,7 @@
         <v>244</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1861,7 +1864,7 @@
         <v>244</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1878,7 +1881,7 @@
         <v>244</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1895,7 +1898,7 @@
         <v>244</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1912,7 +1915,7 @@
         <v>244</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1929,7 +1932,7 @@
         <v>244</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1946,7 +1949,7 @@
         <v>244</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1963,7 +1966,7 @@
         <v>244</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2014,7 +2017,7 @@
         <v>244</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2031,7 +2034,7 @@
         <v>244</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2048,7 +2051,7 @@
         <v>244</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2065,7 +2068,7 @@
         <v>244</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -3042,17 +3045,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D77:E77"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D91:E91"/>
@@ -3069,6 +3061,17 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BB553-2162-4F50-84DE-C56545673139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88715C3F-5996-4E9A-BE28-2C8A5C5E1227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,9 +288,6 @@
     <t>tt</t>
   </si>
   <si>
-    <t>ukr</t>
-  </si>
-  <si>
     <t>urrv</t>
   </si>
   <si>
@@ -991,6 +988,9 @@
   </si>
   <si>
     <t>miguelalbano</t>
+  </si>
+  <si>
+    <t>uk</t>
   </si>
 </sst>
 </file>
@@ -1350,20 +1350,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="69.6328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1388,1663 +1387,1674 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="B72" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="D89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="E90" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E102" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D91:E91"/>
@@ -3061,17 +3071,6 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88715C3F-5996-4E9A-BE28-2C8A5C5E1227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD486C5-9577-423C-ADE6-C862CDBDCEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,24 +960,15 @@
     <t>Kano</t>
   </si>
   <si>
-    <t>dg-dx</t>
-  </si>
-  <si>
     <t>Accra, Lome</t>
   </si>
   <si>
-    <t>fc-fk-fo</t>
-  </si>
-  <si>
     <t>Brazzaville, Douala, Libreville</t>
   </si>
   <si>
     <t>Sal</t>
   </si>
   <si>
-    <t>di-ga-gl-go-gq</t>
-  </si>
-  <si>
     <t>Abidjan, Bamako, Dakar, Nouakchott, Roberts</t>
   </si>
   <si>
@@ -991,6 +982,15 @@
   </si>
   <si>
     <t>uk</t>
+  </si>
+  <si>
+    <t>db-dg-dx</t>
+  </si>
+  <si>
+    <t>fc-fe-fg-fk-fo-fp</t>
+  </si>
+  <si>
+    <t>di-ga-gb-gf-gg-gl-go-gq-gu</t>
   </si>
 </sst>
 </file>
@@ -1350,19 +1350,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>295</v>
@@ -1396,7 +1396,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1443,12 +1443,12 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>195</v>
@@ -1457,15 +1457,15 @@
         <v>243</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>195</v>
@@ -1474,10 +1474,10 @@
         <v>243</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>307</v>
       </c>
@@ -1491,10 +1491,10 @@
         <v>243</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1761,10 +1761,10 @@
         <v>243</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,15 +1778,15 @@
         <v>243</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>195</v>
@@ -1795,10 +1795,10 @@
         <v>243</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1812,10 +1812,10 @@
         <v>243</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1829,10 +1829,10 @@
         <v>243</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1846,10 +1846,10 @@
         <v>243</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1863,10 +1863,10 @@
         <v>243</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1880,10 +1880,10 @@
         <v>243</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1897,10 +1897,10 @@
         <v>243</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,10 +1914,10 @@
         <v>243</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1931,10 +1931,10 @@
         <v>243</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1948,10 +1948,10 @@
         <v>243</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1965,10 +1965,10 @@
         <v>243</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2002,12 +2002,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>195</v>
@@ -2016,10 +2016,10 @@
         <v>243</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,10 +2033,10 @@
         <v>243</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2050,10 +2050,10 @@
         <v>243</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2067,10 +2067,10 @@
         <v>243</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>305</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>304</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2739,11 +2739,11 @@
         <v>183</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>219</v>
       </c>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -2803,9 +2803,9 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>168</v>
@@ -2820,7 +2820,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>279</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>91</v>
       </c>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>92</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>93</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>94</v>
       </c>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>95</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
@@ -3044,17 +3044,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D77:E77"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D91:E91"/>
@@ -3071,6 +3060,17 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD486C5-9577-423C-ADE6-C862CDBDCEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9033BB53-522F-4665-869F-8992E08D48AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="322">
   <si>
     <t>Set</t>
   </si>
@@ -991,6 +991,12 @@
   </si>
   <si>
     <t>di-ga-gb-gf-gg-gl-go-gq-gu</t>
+  </si>
+  <si>
+    <t>zan</t>
+  </si>
+  <si>
+    <t>Anchorage (Pacific and Arctic)</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2903,155 +2909,182 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E96" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E103" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
     <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D103:E103"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D86:E86"/>
@@ -3060,17 +3093,6 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9033BB53-522F-4665-869F-8992E08D48AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09EB02A-BE05-4EB5-A372-17BF54C32B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="326">
   <si>
     <t>Set</t>
   </si>
@@ -997,6 +997,18 @@
   </si>
   <si>
     <t>Anchorage (Pacific and Arctic)</t>
+  </si>
+  <si>
+    <t>ulll</t>
+  </si>
+  <si>
+    <t>Murmansk Oceanic</t>
+  </si>
+  <si>
+    <t>uhmm</t>
+  </si>
+  <si>
+    <t>Magadan Oceanic</t>
   </si>
 </sst>
 </file>
@@ -1354,21 +1366,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" customWidth="1"/>
-    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1429,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1461,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>319</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>317</v>
       </c>
@@ -1483,7 +1495,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>307</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1704,7 +1716,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1731,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1787,7 +1799,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>318</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1906,7 +1918,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2059,7 +2071,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,7 +2139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2161,7 +2173,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2263,7 +2275,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2297,7 +2309,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2331,7 +2343,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -2397,7 +2409,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,7 +2509,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2512,7 +2524,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>305</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>304</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2595,7 +2607,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2627,7 +2639,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2642,7 +2654,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2657,7 +2669,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,7 +2684,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2687,7 +2699,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2702,7 +2714,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2717,7 +2729,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2749,7 +2761,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2764,7 +2776,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>219</v>
       </c>
@@ -2779,7 +2791,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -2794,7 +2806,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -2809,95 +2821,93 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>183</v>
@@ -2907,184 +2917,204 @@
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E105" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D103:E103"/>
+  <mergeCells count="30">
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D95:E95"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D86:E86"/>
@@ -3093,6 +3123,20 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09EB02A-BE05-4EB5-A372-17BF54C32B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AB882-07D9-4C78-AF86-D9D547DDDB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="19380" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="319">
   <si>
     <t>Set</t>
   </si>
@@ -258,21 +258,6 @@
     <t>sbao</t>
   </si>
   <si>
-    <t>sccz</t>
-  </si>
-  <si>
-    <t>scez</t>
-  </si>
-  <si>
-    <t>scfz</t>
-  </si>
-  <si>
-    <t>sco</t>
-  </si>
-  <si>
-    <t>sctz</t>
-  </si>
-  <si>
     <t>sf</t>
   </si>
   <si>
@@ -675,21 +660,6 @@
     <t>VATSIM Argentina</t>
   </si>
   <si>
-    <t>Punta Arenas (Oceanic Low)</t>
-  </si>
-  <si>
-    <t>Santiago (Oceanic Low)</t>
-  </si>
-  <si>
-    <t>Antafogasta (Oceanic Low)</t>
-  </si>
-  <si>
-    <t>Santiago Oceanico (Oceanic Low)</t>
-  </si>
-  <si>
-    <t>Puerto Montt (Oceanic Low)</t>
-  </si>
-  <si>
     <t>sp</t>
   </si>
   <si>
@@ -909,9 +879,6 @@
     <t>Thomas Smith</t>
   </si>
   <si>
-    <t>FIR Rejected Offer To Participate</t>
-  </si>
-  <si>
     <t>Tavis Harrison</t>
   </si>
   <si>
@@ -1009,6 +976,18 @@
   </si>
   <si>
     <t>Magadan Oceanic</t>
+  </si>
+  <si>
+    <t>Antafogasta, Isla de Pascua, Puerto Montt, Punta Arenas, Santiago</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>vACC Did Not Respond</t>
+  </si>
+  <si>
+    <t>vACC Rejected Offer To Participate</t>
   </si>
 </sst>
 </file>
@@ -1366,21 +1345,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:E89"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1405,1738 +1384,1674 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="D99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D99:E99"/>
+  <mergeCells count="26">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D104:E104"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AB882-07D9-4C78-AF86-D9D547DDDB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFCE11-A4A6-4CD6-A4A2-27CD12914B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="324">
   <si>
     <t>Set</t>
   </si>
@@ -988,6 +988,21 @@
   </si>
   <si>
     <t>vACC Rejected Offer To Participate</t>
+  </si>
+  <si>
+    <t>VATSur OpenSkies</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
   </si>
 </sst>
 </file>
@@ -1345,21 +1360,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1408,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1423,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1440,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1455,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>308</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>306</v>
       </c>
@@ -1474,7 +1489,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>296</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1523,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1540,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +1608,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1625,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1627,7 +1642,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1644,7 +1659,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1661,7 +1676,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1695,7 +1710,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1725,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1742,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1776,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +1793,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>307</v>
       </c>
@@ -1795,7 +1810,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1812,7 +1827,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +1844,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +1861,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1895,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1897,7 +1912,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1948,7 +1963,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1965,7 +1980,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +1997,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1999,7 +2014,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,7 +2048,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2065,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2067,7 +2082,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2101,7 +2116,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2152,7 +2167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2169,7 +2184,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2186,7 +2201,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2203,7 +2218,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2220,7 +2235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2254,7 +2269,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -2271,7 +2286,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,7 +2303,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -2339,7 +2354,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2356,7 +2371,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2373,7 +2388,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -2388,7 +2403,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2405,7 +2420,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -2422,7 +2437,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2488,7 +2503,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2503,7 +2518,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>294</v>
       </c>
@@ -2554,7 +2569,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>293</v>
       </c>
@@ -2571,7 +2586,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2586,7 +2601,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2618,7 +2633,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2633,7 +2648,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>316</v>
       </c>
@@ -2648,7 +2663,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -2665,7 +2680,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -2680,87 +2695,87 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>178</v>
@@ -2770,95 +2785,93 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>178</v>
@@ -2868,190 +2881,224 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E103" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D84:E84"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
     <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFCE11-A4A6-4CD6-A4A2-27CD12914B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE53FAF-A2E7-4439-9218-0030E77751B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="327">
   <si>
     <t>Set</t>
   </si>
@@ -1003,6 +1003,15 @@
   </si>
   <si>
     <t>Georgetown</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>vACC Inactive</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,40 +2691,40 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>178</v>
@@ -2725,72 +2734,72 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
@@ -2802,10 +2811,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>178</v>
@@ -2815,110 +2824,110 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>178</v>
@@ -2930,175 +2939,191 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E97" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E104" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D84:E84"/>
+  <mergeCells count="29">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D85:E85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE53FAF-A2E7-4439-9218-0030E77751B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC93F7-E718-4AC7-801E-9593889F96EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="329">
   <si>
     <t>Set</t>
   </si>
@@ -1012,6 +1012,12 @@
   </si>
   <si>
     <t>vACC Inactive</t>
+  </si>
+  <si>
+    <t>vc-vr</t>
+  </si>
+  <si>
+    <t>Colombo, Male</t>
   </si>
 </sst>
 </file>
@@ -1369,21 +1375,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +1438,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1470,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>308</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>306</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>296</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1634,7 +1640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1740,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>307</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -2412,7 +2418,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2512,7 +2518,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2527,7 +2533,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>294</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>293</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2610,7 +2616,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2642,7 +2648,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2657,7 +2663,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>316</v>
       </c>
@@ -2672,7 +2678,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>324</v>
       </c>
@@ -2704,7 +2710,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
@@ -2719,7 +2725,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>321</v>
       </c>
@@ -2734,7 +2740,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
@@ -2749,7 +2755,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>209</v>
       </c>
@@ -2764,7 +2770,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
@@ -2779,7 +2785,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>322</v>
       </c>
@@ -2794,7 +2800,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>79</v>
       </c>
@@ -2809,7 +2815,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>311</v>
       </c>
@@ -2824,7 +2830,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>313</v>
       </c>
@@ -2839,7 +2845,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>305</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>80</v>
       </c>
@@ -2873,76 +2879,76 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>178</v>
@@ -2952,170 +2958,172 @@
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E105" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D77:E77"/>
+  <mergeCells count="30">
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D98:E98"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="D84:E84"/>
@@ -3124,6 +3132,20 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D91:E91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC93F7-E718-4AC7-801E-9593889F96EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F1106B-9CC7-40D2-A8E6-358C4A4A2FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="332">
   <si>
     <t>Set</t>
   </si>
@@ -1018,6 +1018,15 @@
   </si>
   <si>
     <t>Colombo, Male</t>
+  </si>
+  <si>
+    <t>zm</t>
+  </si>
+  <si>
+    <t>VATAPAC Specialists</t>
+  </si>
+  <si>
+    <t>Ulaanbaatar</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:E91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3009,133 +3018,132 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E106" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D85:E85"/>
+  <mergeCells count="31">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D73:E73"/>
@@ -3146,6 +3154,23 @@
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D85:E85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE53FAF-A2E7-4439-9218-0030E77751B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B4C9C-46F0-4138-8A21-4BA03F84CA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="329">
   <si>
     <t>Set</t>
   </si>
@@ -1012,6 +1012,12 @@
   </si>
   <si>
     <t>vACC Inactive</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
   </si>
 </sst>
 </file>
@@ -1073,9 +1079,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1113,7 +1119,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1219,7 +1225,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1361,7 +1367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1369,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,72 +2680,72 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>328</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>325</v>
+        <v>103</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>178</v>
@@ -2749,72 +2755,72 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>178</v>
@@ -2826,10 +2832,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>178</v>
@@ -2839,110 +2845,110 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>178</v>
@@ -2954,176 +2960,192 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E98" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E103" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E105" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D86:E86"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D78:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B4C9C-46F0-4138-8A21-4BA03F84CA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF305B-C495-445F-A96A-6D31CD9BA569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="353">
   <si>
     <t>Set</t>
   </si>
@@ -969,9 +969,6 @@
     <t>ulll</t>
   </si>
   <si>
-    <t>Murmansk Oceanic</t>
-  </si>
-  <si>
     <t>uhmm</t>
   </si>
   <si>
@@ -1018,6 +1015,81 @@
   </si>
   <si>
     <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>St. Petersburg ACC</t>
+  </si>
+  <si>
+    <t>Ekaterina Romanova</t>
+  </si>
+  <si>
+    <t>va-ve-vi-vo</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>India vACC</t>
+  </si>
+  <si>
+    <t>Rahul Chakraborty</t>
+  </si>
+  <si>
+    <t>AS-320</t>
+  </si>
+  <si>
+    <t>vd-vl-vv</t>
+  </si>
+  <si>
+    <t>Phnom Penh, Vientiane, Hanoi, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>VCL vACC</t>
+  </si>
+  <si>
+    <t>Amos Ng</t>
+  </si>
+  <si>
+    <t>amosngSP</t>
+  </si>
+  <si>
+    <t>df-dr</t>
+  </si>
+  <si>
+    <t>Niamey, Ouaga</t>
+  </si>
+  <si>
+    <t>VATMENA OpenSkies</t>
+  </si>
+  <si>
+    <t>tj</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan CERAP</t>
+  </si>
+  <si>
+    <t>Francis Reilly-Andujar</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Havana FIR</t>
+  </si>
+  <si>
+    <t>Miguel Armas Jr.</t>
+  </si>
+  <si>
+    <t>miguelarmas</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1079,9 +1154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1119,7 +1194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1225,7 +1300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1367,7 +1442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1375,21 +1450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1498,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1433,12 +1508,12 @@
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1530,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1465,34 +1540,32 @@
       <c r="C5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>190</v>
@@ -1504,12 +1577,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>190</v>
@@ -1521,282 +1594,282 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>190</v>
@@ -1808,12 +1881,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>307</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>190</v>
@@ -1825,12 +1898,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>190</v>
@@ -1842,12 +1915,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>190</v>
@@ -1859,12 +1932,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>190</v>
@@ -1876,12 +1949,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>190</v>
@@ -1893,12 +1966,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>190</v>
@@ -1910,12 +1983,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>190</v>
@@ -1927,12 +2000,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>190</v>
@@ -1944,12 +2017,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>190</v>
@@ -1961,12 +2034,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>190</v>
@@ -1978,12 +2051,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>190</v>
@@ -1995,63 +2068,63 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>190</v>
@@ -2063,12 +2136,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>190</v>
@@ -2080,12 +2153,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>190</v>
@@ -2097,199 +2170,199 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>199</v>
@@ -2301,146 +2374,146 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>207</v>
@@ -2452,12 +2525,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>207</v>
@@ -2469,12 +2542,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>207</v>
@@ -2486,12 +2559,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>207</v>
@@ -2503,649 +2576,736 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" t="s">
+        <v>334</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E110" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D84:E84"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D90:E90"/>
     <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D78:E78"/>
     <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D78:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF305B-C495-445F-A96A-6D31CD9BA569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE999187-501A-40B3-9286-0AE80A8B35B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="357">
   <si>
     <t>Set</t>
   </si>
@@ -1090,6 +1090,18 @@
   </si>
   <si>
     <t>miguelarmas</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t>hl</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2019,27 +2031,25 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>354</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>304</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>190</v>
@@ -2053,10 +2063,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>190</v>
@@ -2070,10 +2080,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>190</v>
@@ -2087,61 +2097,61 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>190</v>
@@ -2155,10 +2165,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>190</v>
@@ -2172,10 +2182,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>190</v>
@@ -2189,132 +2199,130 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>240</v>
@@ -2325,10 +2333,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>196</v>
@@ -2342,13 +2350,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>240</v>
@@ -2359,195 +2367,195 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>207</v>
@@ -2561,10 +2569,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>207</v>
@@ -2578,10 +2586,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>207</v>
@@ -2595,388 +2603,390 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>349</v>
+        <v>142</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E69" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E70" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>294</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E75" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>314</v>
+        <v>102</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E83" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>283</v>
+        <v>346</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>178</v>
@@ -2986,129 +2996,129 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>163</v>
+        <v>328</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>332</v>
+        <v>163</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D95" t="s">
-        <v>334</v>
+        <v>212</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>337</v>
+        <v>164</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
+      </c>
+      <c r="D97" t="s">
+        <v>334</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E98" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
@@ -3120,192 +3130,226 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>310</v>
+        <v>167</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E101" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E105" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E110" s="3"/>
+      <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D90:E90"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D86:E86"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D80:E80"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE999187-501A-40B3-9286-0AE80A8B35B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FCCA39-4B77-4CE5-A025-1EF897115E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
   <si>
     <t>Set</t>
   </si>
@@ -1102,6 +1102,9 @@
   </si>
   <si>
     <t>Tripoli</t>
+  </si>
+  <si>
+    <t>freilly95</t>
   </si>
 </sst>
 </file>
@@ -1166,9 +1169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1206,7 +1209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1312,7 +1315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1454,7 +1457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1464,19 +1467,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1528,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1560,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>341</v>
       </c>
@@ -1572,7 +1575,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>308</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>306</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1842,7 +1845,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>307</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>353</v>
       </c>
@@ -2044,7 +2047,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>355</v>
       </c>
@@ -2212,7 +2215,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,7 +2553,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>348</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -2682,7 +2685,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>294</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>293</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
@@ -2765,7 +2768,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2800,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
@@ -2812,7 +2815,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>315</v>
       </c>
@@ -2827,7 +2830,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>326</v>
       </c>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>323</v>
       </c>
@@ -2874,7 +2877,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>320</v>
       </c>
@@ -2904,7 +2907,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -2934,7 +2937,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>321</v>
       </c>
@@ -2964,7 +2967,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>344</v>
       </c>
@@ -2978,10 +2981,10 @@
         <v>347</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>79</v>
       </c>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>311</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>312</v>
       </c>
@@ -3028,7 +3031,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>305</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>80</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>331</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>336</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>81</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>82</v>
       </c>
@@ -3128,7 +3131,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>83</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>84</v>
       </c>
@@ -3160,7 +3163,7 @@
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -3175,7 +3178,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>85</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>269</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>86</v>
       </c>
@@ -3224,7 +3227,7 @@
       </c>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
@@ -3239,7 +3242,7 @@
       </c>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>88</v>
       </c>
@@ -3254,7 +3257,7 @@
       </c>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>89</v>
       </c>
@@ -3269,7 +3272,7 @@
       </c>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>90</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>91</v>
       </c>
@@ -3301,7 +3304,7 @@
       </c>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>92</v>
       </c>
@@ -3318,6 +3321,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D100:E100"/>
@@ -3334,22 +3353,6 @@
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FCCA39-4B77-4CE5-A025-1EF897115E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D0C5FD-C33B-4710-A06D-7013721579D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="363">
   <si>
     <t>Set</t>
   </si>
@@ -1105,6 +1105,21 @@
   </si>
   <si>
     <t>freilly95</t>
+  </si>
+  <si>
+    <t>vy</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>zm</t>
+  </si>
+  <si>
+    <t>Ulaanbaatar</t>
+  </si>
+  <si>
+    <t>VATAPAC Specialists</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,57 +3133,57 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>166</v>
+        <v>359</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>178</v>
@@ -3180,171 +3195,187 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E112" s="3"/>
+      <c r="E114" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D81:E81"/>
+  <mergeCells count="34">
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D101:E101"/>
     <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="D89:E89"/>
@@ -3353,6 +3384,22 @@
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D0C5FD-C33B-4710-A06D-7013721579D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4624474-D250-4D5F-87A5-1BF54530827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="360">
   <si>
     <t>Set</t>
   </si>
@@ -1026,21 +1026,6 @@
     <t>Ekaterina Romanova</t>
   </si>
   <si>
-    <t>va-ve-vi-vo</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>India vACC</t>
-  </si>
-  <si>
-    <t>Rahul Chakraborty</t>
-  </si>
-  <si>
-    <t>AS-320</t>
-  </si>
-  <si>
     <t>vd-vl-vv</t>
   </si>
   <si>
@@ -1120,6 +1105,12 @@
   </si>
   <si>
     <t>VATAPAC Specialists</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Chennai Oceanic, Mumbai Oceanic</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1474,7 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107:E107"/>
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,16 +1568,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2049,16 +2040,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -2217,16 +2208,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -2655,19 +2646,19 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2984,19 +2975,19 @@
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,36 +3073,34 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D97" t="s">
-        <v>334</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>335</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3133,16 +3122,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -3244,16 +3233,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E107" s="3"/>
     </row>
@@ -3365,7 +3354,26 @@
       <c r="E114" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D114:E114"/>
@@ -3382,24 +3390,6 @@
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4624474-D250-4D5F-87A5-1BF54530827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85193B8-5C5B-4E07-AD6B-389E19FBC90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="362">
   <si>
     <t>Set</t>
   </si>
@@ -1111,6 +1111,12 @@
   </si>
   <si>
     <t>Chennai Oceanic, Mumbai Oceanic</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
   </si>
 </sst>
 </file>
@@ -1175,9 +1181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1215,7 +1221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1321,7 +1327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1463,7 +1469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1471,21 +1477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1540,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1566,7 +1572,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>336</v>
       </c>
@@ -1581,7 +1587,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>308</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>306</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1851,7 +1857,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>307</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>348</v>
       </c>
@@ -2053,7 +2059,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2189,248 +2195,246 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>199</v>
@@ -2442,146 +2446,146 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>207</v>
@@ -2593,12 +2597,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>207</v>
@@ -2610,12 +2614,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>207</v>
@@ -2627,12 +2631,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>207</v>
@@ -2644,44 +2648,46 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>178</v>
@@ -2691,29 +2697,27 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>206</v>
@@ -2725,29 +2729,29 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>290</v>
@@ -2759,89 +2763,91 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>178</v>
@@ -2851,74 +2857,74 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>178</v>
@@ -2928,266 +2934,266 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>178</v>
@@ -3197,199 +3203,215 @@
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E114" s="3"/>
+      <c r="E115" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D81:E81"/>
+  <mergeCells count="36">
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D88:E88"/>
     <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D107:E107"/>
     <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D87:E87"/>
     <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85193B8-5C5B-4E07-AD6B-389E19FBC90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F381B-6156-4A8F-8C82-70A56C9B7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="366">
   <si>
     <t>Set</t>
   </si>
@@ -825,9 +825,6 @@
     <t>Bernardo Reis</t>
   </si>
   <si>
-    <t>FIR Did Not Respond</t>
-  </si>
-  <si>
     <t>sashase</t>
   </si>
   <si>
@@ -1117,6 +1114,21 @@
   </si>
   <si>
     <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Kingston FIR</t>
+  </si>
+  <si>
+    <t>Njeri Caroo</t>
+  </si>
+  <si>
+    <t>Area managers without a GitHub account should contact a member of the VATGlasses Team to add updates to the Live &amp; Beta sites. If you'd like to add an area which isn't listed or are responsible for a VATGlasses-managed area, please contact our team for access to the repository.</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1172,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1477,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1516,13 +1528,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1535,10 +1547,10 @@
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1567,32 +1579,32 @@
       <c r="C5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>190</v>
@@ -1601,15 +1613,15 @@
         <v>233</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>190</v>
@@ -1618,15 +1630,15 @@
         <v>233</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>190</v>
@@ -1635,7 +1647,7 @@
         <v>233</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1785,10 +1797,10 @@
         <v>179</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1852,10 +1864,10 @@
       <c r="C22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1905,7 +1917,7 @@
         <v>233</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1922,15 +1934,15 @@
         <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>190</v>
@@ -1939,7 +1951,7 @@
         <v>233</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1956,7 +1968,7 @@
         <v>233</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1973,7 +1985,7 @@
         <v>233</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1990,7 +2002,7 @@
         <v>233</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -2007,7 +2019,7 @@
         <v>233</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -2024,7 +2036,7 @@
         <v>233</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -2041,23 +2053,23 @@
         <v>233</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E34" s="3"/>
+      <c r="D34" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -2073,7 +2085,7 @@
         <v>233</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -2090,7 +2102,7 @@
         <v>233</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2107,7 +2119,7 @@
         <v>233</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -2124,7 +2136,7 @@
         <v>233</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -2166,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>190</v>
@@ -2175,7 +2187,7 @@
         <v>233</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2192,23 +2204,23 @@
         <v>233</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E43" s="3"/>
+      <c r="D43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -2224,23 +2236,23 @@
         <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E45" s="3"/>
+      <c r="D45" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
@@ -2256,7 +2268,7 @@
         <v>233</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2575,192 +2587,192 @@
       <c r="C65" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>343</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>345</v>
+        <v>207</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2768,650 +2780,677 @@
         <v>293</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E83" s="3"/>
+      <c r="D83" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E85" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E86" s="3"/>
+      <c r="D86" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E87" s="3"/>
+      <c r="D87" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D88" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D89" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E90" s="3"/>
+      <c r="D90" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D91" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>359</v>
+        <v>164</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E98" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>335</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E101" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="3"/>
+      <c r="D102" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E105" s="3"/>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E108" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E109" s="3"/>
+      <c r="D109" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E110" s="3"/>
+      <c r="D110" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E111" s="3"/>
+      <c r="D111" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E112" s="3"/>
+      <c r="D112" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E114" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E115" s="3"/>
+      <c r="D115" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="118" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D108:E108"/>
+  <mergeCells count="37">
+    <mergeCell ref="A118:E118"/>
     <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D88:E88"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D94:E94"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D103:E103"/>
     <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D89:E89"/>
     <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D90:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F381B-6156-4A8F-8C82-70A56C9B7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A939F-3C7A-457A-915E-5220E37F1ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="368">
   <si>
     <t>Set</t>
   </si>
@@ -1129,6 +1129,12 @@
   </si>
   <si>
     <t>Area managers without a GitHub account should contact a member of the VATGlasses Team to add updates to the Live &amp; Beta sites. If you'd like to add an area which isn't listed or are responsible for a VATGlasses-managed area, please contact our team for access to the repository.</t>
+  </si>
+  <si>
+    <t>hj-hs</t>
+  </si>
+  <si>
+    <t>Juba, Khartoum</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1175,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1489,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:E118"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,10 +1553,10 @@
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1579,10 +1585,10 @@
       <c r="C5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1594,10 +1600,10 @@
       <c r="C6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1864,10 +1870,10 @@
       <c r="C22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -2066,10 +2072,10 @@
       <c r="C34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -2217,253 +2223,251 @@
       <c r="C43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>199</v>
@@ -2477,161 +2481,161 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>207</v>
@@ -2645,10 +2649,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>207</v>
@@ -2662,10 +2666,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
@@ -2679,10 +2683,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>207</v>
@@ -2696,74 +2700,74 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>206</v>
@@ -2777,27 +2781,27 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>289</v>
@@ -2811,646 +2815,664 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>323</v>
+        <v>103</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E87" s="2"/>
+      <c r="D87" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E88" s="2"/>
+      <c r="D88" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="C90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="C93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="C95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>358</v>
+        <v>164</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>334</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E103" s="2"/>
+      <c r="D103" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E105" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E109" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E110" s="2"/>
+      <c r="D110" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E111" s="2"/>
+      <c r="D111" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E112" s="2"/>
+      <c r="D112" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E113" s="2"/>
+      <c r="D113" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C117" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="118" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+      <c r="E117" s="3"/>
+    </row>
+    <row r="119" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D83:E83"/>
+  <mergeCells count="38">
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
     <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D90:E90"/>
     <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A119:E119"/>
     <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D89:E89"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D95:E95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A939F-3C7A-457A-915E-5220E37F1ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696CFE7C-B11A-473B-9333-0D5F9090789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="370">
   <si>
     <t>Set</t>
   </si>
@@ -1135,6 +1135,12 @@
   </si>
   <si>
     <t>Juba, Khartoum</t>
+  </si>
+  <si>
+    <t>ha-hd</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1181,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1495,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,10 +1559,10 @@
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1585,10 +1591,10 @@
       <c r="C5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1600,10 +1606,10 @@
       <c r="C6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1870,10 +1876,10 @@
       <c r="C22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -2072,10 +2078,10 @@
       <c r="C34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -2196,295 +2202,293 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>360</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>199</v>
@@ -2498,161 +2502,161 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>207</v>
@@ -2666,10 +2670,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
@@ -2683,10 +2687,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>207</v>
@@ -2700,10 +2704,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>207</v>
@@ -2717,74 +2721,74 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E74" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>206</v>
@@ -2798,27 +2802,27 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>289</v>
@@ -2832,647 +2836,665 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E82" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>323</v>
+        <v>103</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E87" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E88" s="3"/>
+      <c r="D88" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E89" s="3"/>
+      <c r="D89" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>358</v>
+        <v>164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E100" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>334</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E103" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E104" s="3"/>
+      <c r="D104" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E107" s="3"/>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E110" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E111" s="3"/>
+      <c r="D111" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E112" s="3"/>
+      <c r="D112" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E113" s="3"/>
+      <c r="D113" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E114" s="3"/>
+      <c r="D114" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E116" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="C118" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="119" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="120" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D110:E110"/>
+  <mergeCells count="39">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A120:E120"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D90:E90"/>
     <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D105:E105"/>
     <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
     <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D111:E111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696CFE7C-B11A-473B-9333-0D5F9090789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC4A1C-B139-45A9-A9B4-A272EE91FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="372">
   <si>
     <t>Set</t>
   </si>
@@ -1141,6 +1141,12 @@
   </si>
   <si>
     <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>Asmara</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2251,10 +2257,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>178</v>
@@ -2266,246 +2272,244 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>199</v>
@@ -2519,161 +2523,161 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
@@ -2687,10 +2691,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>207</v>
@@ -2704,10 +2708,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>207</v>
@@ -2721,10 +2725,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>207</v>
@@ -2738,42 +2742,44 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E75" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>178</v>
@@ -2785,27 +2791,25 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>206</v>
@@ -2819,27 +2823,27 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>289</v>
@@ -2853,87 +2857,89 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
@@ -2945,72 +2951,72 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>323</v>
+        <v>103</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>178</v>
@@ -3020,266 +3026,266 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="C93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="C95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>358</v>
+        <v>164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>334</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E107" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>178</v>
@@ -3291,210 +3297,226 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E111" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E117" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C119" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="120" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="121" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D85:E85"/>
+  <mergeCells count="40">
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D106:E106"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A121:E121"/>
     <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D84:E84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC4A1C-B139-45A9-A9B4-A272EE91FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696CFE7C-B11A-473B-9333-0D5F9090789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="370">
   <si>
     <t>Set</t>
   </si>
@@ -1141,12 +1141,6 @@
   </si>
   <si>
     <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>Asmara</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,10 +2251,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>178</v>
@@ -2272,244 +2266,246 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>199</v>
@@ -2523,161 +2519,161 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>362</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>361</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>362</v>
+        <v>139</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
@@ -2691,10 +2687,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>207</v>
@@ -2708,10 +2704,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>207</v>
@@ -2725,10 +2721,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>207</v>
@@ -2742,44 +2738,42 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>343</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>342</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>343</v>
+        <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>346</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>178</v>
@@ -2791,25 +2785,27 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>206</v>
@@ -2823,27 +2819,27 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>289</v>
@@ -2857,89 +2853,87 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
@@ -2951,72 +2945,72 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>326</v>
+        <v>103</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>178</v>
@@ -3026,266 +3020,266 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D97" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>276</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>353</v>
+        <v>166</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E106" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>178</v>
@@ -3297,226 +3291,210 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E109" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>354</v>
+        <v>86</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E116" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="121" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+    <row r="120" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D106:E106"/>
+  <mergeCells count="39">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D85:E85"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D84:E84"/>
     <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D111:E111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC4A1C-B139-45A9-A9B4-A272EE91FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F390AA-5894-4491-AE26-AF309D1BC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="366">
   <si>
     <t>Set</t>
   </si>
@@ -48,9 +48,6 @@
     <t>adr</t>
   </si>
   <si>
-    <t>afr</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>bi-bg</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>dt</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>es</t>
   </si>
   <si>
-    <t>euc</t>
-  </si>
-  <si>
     <t>ev</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
     <t>sa</t>
   </si>
   <si>
-    <t>sam</t>
-  </si>
-  <si>
     <t>sbao</t>
   </si>
   <si>
@@ -312,15 +300,6 @@
     <t>zyz</t>
   </si>
   <si>
-    <t>Caribbean FSS</t>
-  </si>
-  <si>
-    <t>Africa FSS</t>
-  </si>
-  <si>
-    <t>Eurocontrol FSS</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -339,9 +318,6 @@
     <t>Tahiti</t>
   </si>
   <si>
-    <t>South America FSS</t>
-  </si>
-  <si>
     <t>Falkland Islands/Islas Malvinas</t>
   </si>
   <si>
@@ -708,9 +684,6 @@
     <t>Otto Tuhkunen</t>
   </si>
   <si>
-    <t>Lenny Colton</t>
-  </si>
-  <si>
     <t>Thijs Schepman</t>
   </si>
   <si>
@@ -759,9 +732,6 @@
     <t>seelenkrieger</t>
   </si>
   <si>
-    <t>lennycolton</t>
-  </si>
-  <si>
     <t>gurselalp</t>
   </si>
   <si>
@@ -1147,6 +1117,18 @@
   </si>
   <si>
     <t>Asmara</t>
+  </si>
+  <si>
+    <t>fss</t>
+  </si>
+  <si>
+    <t>Africa, Asia South East, Asia West, Caribbean, Eurocontrol, South America</t>
+  </si>
+  <si>
+    <t>Kieran Hardern</t>
+  </si>
+  <si>
+    <t>KHardern</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:E45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1543,129 +1525,133 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>325</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1673,16 +1659,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1690,33 +1676,33 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1724,33 +1710,33 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>223</v>
+        <v>364</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1758,67 +1744,67 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1826,16 +1812,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1843,33 +1829,33 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1877,99 +1863,101 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1977,16 +1965,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1994,16 +1982,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -2011,1512 +1999,1458 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>363</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>348</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B41" s="1" t="s">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>370</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>371</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>363</v>
+        <v>199</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>364</v>
+        <v>267</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>346</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>327</v>
+        <v>156</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>334</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>353</v>
+        <v>160</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>356</v>
+        <v>211</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E108" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>354</v>
+        <v>84</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>355</v>
+        <v>164</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D113" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E114" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="121" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+    <row r="118" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D68:E68"/>
+  <mergeCells count="37">
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D83:E83"/>
     <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D109:E109"/>
     <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D84:E84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F390AA-5894-4491-AE26-AF309D1BC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268315C-11B1-441E-9FE9-9FE49928B89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="380">
   <si>
     <t>Set</t>
   </si>
@@ -1129,6 +1129,48 @@
   </si>
   <si>
     <t>KHardern</t>
+  </si>
+  <si>
+    <t>zb</t>
+  </si>
+  <si>
+    <t>Beijing, Hohhot</t>
+  </si>
+  <si>
+    <t>VATPRC</t>
+  </si>
+  <si>
+    <t>Rudi Zhang</t>
+  </si>
+  <si>
+    <t>RudiZhang</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>ud</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>nodata</t>
+  </si>
+  <si>
+    <t>All not listed elsewhere</t>
+  </si>
+  <si>
+    <t>Default VATSpy boundaries and airports for non-participating FIRs</t>
   </si>
 </sst>
 </file>
@@ -1164,16 +1206,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1564,10 +1609,10 @@
       <c r="C4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2021,10 +2066,10 @@
       <c r="C31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2036,10 +2081,10 @@
       <c r="C32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -2170,10 +2215,10 @@
       <c r="C40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -2202,10 +2247,10 @@
       <c r="C42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -2217,10 +2262,10 @@
       <c r="C43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -2232,10 +2277,10 @@
       <c r="C44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -2264,10 +2309,10 @@
       <c r="C46" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -2602,10 +2647,10 @@
       <c r="C66" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
@@ -2736,10 +2781,10 @@
       <c r="C74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
@@ -2751,34 +2796,32 @@
       <c r="C75" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>66</v>
+        <v>377</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>276</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>198</v>
@@ -2792,27 +2835,27 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>279</v>
@@ -2826,290 +2869,292 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>257</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D83" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>365</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>153</v>
+        <v>313</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E87" s="2"/>
+      <c r="D87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E88" s="2"/>
+      <c r="D88" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D90" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E91" s="2"/>
+      <c r="D91" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>302</v>
+        <v>374</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>205</v>
@@ -3123,334 +3168,418 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>343</v>
+        <v>156</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E105" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E106" s="2"/>
+      <c r="D106" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>345</v>
+        <v>160</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E109" s="2"/>
+      <c r="D109" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E110" s="2"/>
+      <c r="D110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>163</v>
+        <v>367</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E111" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E112" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E113" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E115" s="2"/>
+      <c r="D115" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="118" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="123" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A118:E118"/>
+  <mergeCells count="38">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D109:E109"/>
     <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D92:E92"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D85:E85"/>
     <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D95:E95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268315C-11B1-441E-9FE9-9FE49928B89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F86698-D0E3-4CE2-8B80-681DA82E0C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1131,12 +1131,6 @@
     <t>KHardern</t>
   </si>
   <si>
-    <t>zb</t>
-  </si>
-  <si>
-    <t>Beijing, Hohhot</t>
-  </si>
-  <si>
     <t>VATPRC</t>
   </si>
   <si>
@@ -1171,18 +1165,33 @@
   </si>
   <si>
     <t>Default VATSpy boundaries and airports for non-participating FIRs</t>
+  </si>
+  <si>
+    <t>prc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1211,18 +1220,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1238,9 +1247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1278,7 +1287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1384,7 +1393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1526,7 +1535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1536,19 +1545,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="69.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="69.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1591,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>325</v>
       </c>
@@ -1614,7 +1623,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.45" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>295</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>285</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1682,7 +1691,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.45" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1844,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29.1" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>296</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2022,7 +2031,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2039,7 +2048,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2056,7 +2065,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>362</v>
       </c>
@@ -2071,7 +2080,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>337</v>
       </c>
@@ -2086,7 +2095,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2171,7 +2180,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="14.45" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="14.45" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>358</v>
       </c>
@@ -2220,7 +2229,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>349</v>
       </c>
@@ -2252,7 +2261,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>360</v>
       </c>
@@ -2267,7 +2276,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>356</v>
       </c>
@@ -2282,7 +2291,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>339</v>
       </c>
@@ -2314,7 +2323,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,7 +2357,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2399,7 +2408,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2501,7 +2510,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2518,7 +2527,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2552,7 +2561,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2603,7 +2612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="28.5">
       <c r="A66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2652,7 +2661,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>351</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2686,7 +2695,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2703,7 +2712,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2737,7 +2746,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2754,7 +2763,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>332</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
@@ -2786,7 +2795,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,22 +2810,22 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="29.1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,46 +2842,46 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>279</v>
@@ -2884,74 +2893,76 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.45" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>170</v>
@@ -2961,74 +2972,74 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>170</v>
@@ -3038,106 +3049,104 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="14.45" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="28.5">
+      <c r="A95" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>205</v>
@@ -3149,12 +3158,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>205</v>
@@ -3166,189 +3175,191 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="29.1" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:5" ht="28.5">
+      <c r="A102" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>170</v>
@@ -3358,24 +3369,22 @@
       </c>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>258</v>
       </c>
@@ -3409,7 +3418,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>344</v>
       </c>
@@ -3424,7 +3433,7 @@
       </c>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>82</v>
       </c>
@@ -3439,7 +3448,7 @@
       </c>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>83</v>
       </c>
@@ -3454,7 +3463,7 @@
       </c>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>84</v>
       </c>
@@ -3469,7 +3478,7 @@
       </c>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,7 +3493,7 @@
       </c>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>86</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>87</v>
       </c>
@@ -3516,7 +3525,7 @@
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>88</v>
       </c>
@@ -3531,56 +3540,57 @@
       </c>
       <c r="E121" s="3"/>
     </row>
-    <row r="123" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A123" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D121:E121"/>
     <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D110:E110"/>
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D95:E95"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F86698-D0E3-4CE2-8B80-681DA82E0C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5CA96-D03F-4E91-B5BB-7013E390BC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11260" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="385">
   <si>
     <t>Set</t>
   </si>
@@ -1173,6 +1173,21 @@
   <si>
     <t>Mainland China</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Egypt vACC</t>
+  </si>
+  <si>
+    <t>Kirollos Nashaat</t>
+  </si>
+  <si>
+    <t>kirollos</t>
   </si>
 </sst>
 </file>
@@ -1183,13 +1198,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1215,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1226,12 +1241,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1247,9 +1265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1287,7 +1305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1393,7 +1411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1535,7 +1553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1543,18 +1561,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="69.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="69.453125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1574,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1609,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="29">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1618,12 +1636,12 @@
       <c r="C4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1">
+    <row r="6" spans="1:5" ht="14.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>295</v>
       </c>
@@ -1657,7 +1675,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1">
+    <row r="7" spans="1:5" ht="14.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>285</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="29">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1828,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" customHeight="1">
+    <row r="16" spans="1:5" ht="14.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1827,7 +1845,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="29">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1861,7 +1879,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="29">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1895,7 +1913,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29.1" customHeight="1">
+    <row r="21" spans="1:5" ht="29.15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2075,10 +2093,10 @@
       <c r="C31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
@@ -2090,10 +2108,10 @@
       <c r="C32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
@@ -2197,7 +2215,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.45" customHeight="1">
+    <row r="39" spans="1:5" ht="14.5" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2214,7 +2232,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.45" customHeight="1">
+    <row r="40" spans="1:5" ht="14.5" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>358</v>
       </c>
@@ -2224,10 +2242,10 @@
       <c r="C40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
@@ -2256,283 +2274,283 @@
       <c r="C42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>170</v>
+        <v>382</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>383</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>356</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>357</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>293</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>340</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>293</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>191</v>
@@ -2546,161 +2564,161 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>365</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.5">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:5" ht="29">
+      <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>351</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>199</v>
@@ -2714,10 +2732,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>199</v>
@@ -2731,10 +2749,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>199</v>
@@ -2748,10 +2766,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>199</v>
@@ -2765,140 +2783,140 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>332</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E74" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="29.1" customHeight="1">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="29.15" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>378</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>379</v>
+        <v>94</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>368</v>
+        <v>198</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>150</v>
+        <v>379</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>276</v>
+        <v>366</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>279</v>
@@ -2912,258 +2930,258 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E82" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>257</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="D85" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" ht="14.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>365</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E88" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>313</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E89" s="3"/>
+      <c r="D89" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E90" s="3"/>
+      <c r="D90" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="D92" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" ht="14.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E93" s="3"/>
+      <c r="D93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="28.5">
-      <c r="A95" s="1" t="s">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" ht="29">
+      <c r="A96" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>369</v>
+        <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>205</v>
@@ -3177,10 +3195,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>205</v>
@@ -3194,401 +3212,418 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="29.1" customHeight="1">
-      <c r="A101" s="1" t="s">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" ht="29.15" customHeight="1">
+      <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="28.5">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:5" ht="29">
+      <c r="A103" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>348</v>
+        <v>156</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E107" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E108" s="3"/>
+      <c r="D108" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E110" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E111" s="3"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E114" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>162</v>
+        <v>345</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E115" s="3"/>
+      <c r="D115" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E116" s="3"/>
+      <c r="D116" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E117" s="3"/>
+      <c r="D117" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E118" s="3"/>
+      <c r="D118" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E120" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="123" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A123" s="4" t="s">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="124" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A124" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D76:E76"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D111:E111"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D115:E115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5CA96-D03F-4E91-B5BB-7013E390BC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737DA4A-3B76-466B-B0B6-3F43E20AC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11260" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11260" xr2:uid="{357B1A23-9239-400D-9B56-8A129E784A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="391">
   <si>
     <t>Set</t>
   </si>
@@ -1188,6 +1188,24 @@
   </si>
   <si>
     <t>kirollos</t>
+  </si>
+  <si>
+    <t>uiii</t>
+  </si>
+  <si>
+    <t>Irkutsk</t>
+  </si>
+  <si>
+    <t>unkl</t>
+  </si>
+  <si>
+    <t>unnt</t>
+  </si>
+  <si>
+    <t>Krasnoyarsk</t>
+  </si>
+  <si>
+    <t>Novosibirsk</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2747D-F3D5-4C0F-8D64-38FAD9ABE72F}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -3242,174 +3260,172 @@
       </c>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" ht="29.15" customHeight="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="29.15" customHeight="1">
+      <c r="A103" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="29">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:5" ht="29">
+      <c r="A104" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>170</v>
@@ -3421,104 +3437,106 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E116" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E117" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>164</v>
+        <v>345</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>170</v>
@@ -3530,100 +3548,148 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="C125" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="124" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A124" s="5" t="s">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="127" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A127" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
+  <mergeCells count="41">
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D95:E95"/>
     <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D108:E108"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
     <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D111:E111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="436">
   <si>
     <t>Set</t>
   </si>
@@ -282,337 +282,337 @@
     <t>Lithuania vACC</t>
   </si>
   <si>
+    <t>Patrick Weineis</t>
+  </si>
+  <si>
+    <t>seelenkrieger</t>
+  </si>
+  <si>
+    <t>fa-fd-fx</t>
+  </si>
+  <si>
+    <t>Cape Town, Johannesburg</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>Gabrone</t>
+  </si>
+  <si>
+    <t>fc-fe-fg-fk-fo-fp</t>
+  </si>
+  <si>
+    <t>Brazzaville, Douala, Libreville</t>
+  </si>
+  <si>
+    <t>fi-fj</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>Lusaka</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>fq</t>
+  </si>
+  <si>
+    <t>Beira, Maputo</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>fss</t>
+  </si>
+  <si>
+    <t>Africa, Asia South East, Asia West, Caribbean, Eurocontrol, South America</t>
+  </si>
+  <si>
+    <t>Large FSS Position Definitions</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t>fv</t>
+  </si>
+  <si>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>fz</t>
+  </si>
+  <si>
+    <t>Kinshasa, Kisangani, Lubumbashi</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>Canarias</t>
+  </si>
+  <si>
+    <t>VATSIM Spain</t>
+  </si>
+  <si>
+    <t>Roger Puig</t>
+  </si>
+  <si>
+    <t>rpuig2001</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>Agadir, Casablanca</t>
+  </si>
+  <si>
+    <t>gv</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>ha-hd</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>vACC Rejected Offer To Participate</t>
+  </si>
+  <si>
+    <t>hb-hr-ht</t>
+  </si>
+  <si>
+    <t>Dar-Es-Salaam</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Egypt vACC</t>
+  </si>
+  <si>
+    <t>Kirollos Nashaat</t>
+  </si>
+  <si>
+    <t>kirollos</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>hj-hs</t>
+  </si>
+  <si>
+    <t>Juba, Khartoum</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>hl</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>Entebbe</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Bulgaria vACC</t>
+  </si>
+  <si>
+    <t>Kristian Karagyozov</t>
+  </si>
+  <si>
+    <t>KristianKaragyozov</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Hellenic vACC</t>
+  </si>
+  <si>
+    <t>Spyros Stavrakis</t>
+  </si>
+  <si>
+    <t>SpyrosTTK</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>Barcelona, Madrid</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>Brest, Bordeaux, Marseilles, Paris, Rheims</t>
+  </si>
+  <si>
+    <t>French vACC</t>
+  </si>
+  <si>
+    <t>Corentin Zerbib</t>
+  </si>
+  <si>
+    <t>Pampah91</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>Athinai, Makedonia</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>vACCHUN</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>Brindisi, Milano, Padova, Roma</t>
+  </si>
+  <si>
+    <t>VATSIM Italy</t>
+  </si>
+  <si>
+    <t>Matteo Ferraroni</t>
+  </si>
+  <si>
+    <t>mferraroni</t>
+  </si>
+  <si>
+    <t>lk</t>
+  </si>
+  <si>
+    <t>Praha</t>
+  </si>
+  <si>
+    <t>vACC-CZ</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>vACC Austria</t>
+  </si>
+  <si>
+    <t>lppc</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Portugal vACC</t>
+  </si>
+  <si>
+    <t>Bernardo Reis</t>
+  </si>
+  <si>
+    <t>becas22</t>
+  </si>
+  <si>
+    <t>lppo</t>
+  </si>
+  <si>
+    <t>Santa Maria</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>Romania vACC</t>
+  </si>
+  <si>
     <t>Teodor Petrica</t>
   </si>
   <si>
     <t>tgpetrica</t>
-  </si>
-  <si>
-    <t>fa-fd-fx</t>
-  </si>
-  <si>
-    <t>Cape Town, Johannesburg</t>
-  </si>
-  <si>
-    <t>fb</t>
-  </si>
-  <si>
-    <t>Gabrone</t>
-  </si>
-  <si>
-    <t>fc-fe-fg-fk-fo-fp</t>
-  </si>
-  <si>
-    <t>Brazzaville, Douala, Libreville</t>
-  </si>
-  <si>
-    <t>fi-fj</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>Lusaka</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>Antananarivo</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
-    <t>Luanda</t>
-  </si>
-  <si>
-    <t>fq</t>
-  </si>
-  <si>
-    <t>Beira, Maputo</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>fss</t>
-  </si>
-  <si>
-    <t>Africa, Asia South East, Asia West, Caribbean, Eurocontrol, South America</t>
-  </si>
-  <si>
-    <t>Large FSS Position Definitions</t>
-  </si>
-  <si>
-    <t>ft</t>
-  </si>
-  <si>
-    <t>N'Djamena</t>
-  </si>
-  <si>
-    <t>fv</t>
-  </si>
-  <si>
-    <t>Harare</t>
-  </si>
-  <si>
-    <t>fw</t>
-  </si>
-  <si>
-    <t>Lilongwe</t>
-  </si>
-  <si>
-    <t>fy</t>
-  </si>
-  <si>
-    <t>Windhoek</t>
-  </si>
-  <si>
-    <t>fz</t>
-  </si>
-  <si>
-    <t>Kinshasa, Kisangani, Lubumbashi</t>
-  </si>
-  <si>
-    <t>gc</t>
-  </si>
-  <si>
-    <t>Canarias</t>
-  </si>
-  <si>
-    <t>VATSIM Spain</t>
-  </si>
-  <si>
-    <t>Roger Puig</t>
-  </si>
-  <si>
-    <t>rpuig2001</t>
-  </si>
-  <si>
-    <t>gm</t>
-  </si>
-  <si>
-    <t>Agadir, Casablanca</t>
-  </si>
-  <si>
-    <t>gv</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
-    <t>ha-hd</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>vACC Rejected Offer To Participate</t>
-  </si>
-  <si>
-    <t>hb-hr-ht</t>
-  </si>
-  <si>
-    <t>Dar-Es-Salaam</t>
-  </si>
-  <si>
-    <t>hc</t>
-  </si>
-  <si>
-    <t>Mogadishu</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>Egypt vACC</t>
-  </si>
-  <si>
-    <t>Kirollos Nashaat</t>
-  </si>
-  <si>
-    <t>kirollos</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>Asmara</t>
-  </si>
-  <si>
-    <t>hj-hs</t>
-  </si>
-  <si>
-    <t>Juba, Khartoum</t>
-  </si>
-  <si>
-    <t>hk</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>hl</t>
-  </si>
-  <si>
-    <t>Tripoli</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>Entebbe</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Bulgaria vACC</t>
-  </si>
-  <si>
-    <t>Kristian Karagyozov</t>
-  </si>
-  <si>
-    <t>KristianKaragyozov</t>
-  </si>
-  <si>
-    <t>lc</t>
-  </si>
-  <si>
-    <t>Nicosia</t>
-  </si>
-  <si>
-    <t>Hellenic vACC</t>
-  </si>
-  <si>
-    <t>Spyros Stavrakis</t>
-  </si>
-  <si>
-    <t>SpyrosTTK</t>
-  </si>
-  <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>Barcelona, Madrid</t>
-  </si>
-  <si>
-    <t>lf</t>
-  </si>
-  <si>
-    <t>Brest, Bordeaux, Marseilles, Paris, Rheims</t>
-  </si>
-  <si>
-    <t>French vACC</t>
-  </si>
-  <si>
-    <t>Corentin Zerbib</t>
-  </si>
-  <si>
-    <t>Pampah91</t>
-  </si>
-  <si>
-    <t>lg</t>
-  </si>
-  <si>
-    <t>Athinai, Makedonia</t>
-  </si>
-  <si>
-    <t>lh</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>vACCHUN</t>
-  </si>
-  <si>
-    <t>Patrick Weineis</t>
-  </si>
-  <si>
-    <t>seelenkrieger</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>Brindisi, Milano, Padova, Roma</t>
-  </si>
-  <si>
-    <t>VATSIM Italy</t>
-  </si>
-  <si>
-    <t>Matteo Ferraroni</t>
-  </si>
-  <si>
-    <t>mferraroni</t>
-  </si>
-  <si>
-    <t>lk</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>vACC-CZ</t>
-  </si>
-  <si>
-    <t>lm</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>Wien</t>
-  </si>
-  <si>
-    <t>vACC Austria</t>
-  </si>
-  <si>
-    <t>lppc</t>
-  </si>
-  <si>
-    <t>Lisboa</t>
-  </si>
-  <si>
-    <t>Portugal vACC</t>
-  </si>
-  <si>
-    <t>Bernardo Reis</t>
-  </si>
-  <si>
-    <t>becas22</t>
-  </si>
-  <si>
-    <t>lppo</t>
-  </si>
-  <si>
-    <t>Santa Maria</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>Romania vACC</t>
   </si>
   <si>
     <t>ls</t>
@@ -2484,129 +2484,125 @@
         <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -2654,10 +2650,10 @@
         <v>211</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
@@ -2688,10 +2684,10 @@
         <v>218</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="7Xg5eT7Lf/i+e5Iw4KUB0nF3n2is523ee9H65Jvc4+Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="i3WXlYBHLiMmkLsyWpzDCCCycp3FHYisiCVbuo7qsbQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="473">
   <si>
     <t>Set</t>
   </si>
@@ -414,849 +414,939 @@
     <t>Addis Ababa</t>
   </si>
   <si>
+    <t>hb-hr-ht</t>
+  </si>
+  <si>
+    <t>Dar-Es-Salaam</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Egypt vACC</t>
+  </si>
+  <si>
+    <t>Kirollos Nashaat</t>
+  </si>
+  <si>
+    <t>kirollos</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>hj-hs</t>
+  </si>
+  <si>
+    <t>Juba, Khartoum</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>hl</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>Entebbe</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Bulgaria vACC</t>
+  </si>
+  <si>
+    <t>Kristian Karagyozov</t>
+  </si>
+  <si>
+    <t>KristianKaragyozov</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Hellenic vACC</t>
+  </si>
+  <si>
+    <t>Spyros Stavrakis</t>
+  </si>
+  <si>
+    <t>SpyrosTTK</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>Barcelona, Madrid</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>Brest, Bordeaux, Marseilles, Paris, Rheims</t>
+  </si>
+  <si>
+    <t>French vACC</t>
+  </si>
+  <si>
+    <t>Corentin Zerbib</t>
+  </si>
+  <si>
+    <t>Pampah91</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>Athinai, Makedonia</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>vACCHUN</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>Brindisi, Milano, Padova, Roma</t>
+  </si>
+  <si>
+    <t>VATSIM Italy</t>
+  </si>
+  <si>
+    <t>Matteo Ferraroni</t>
+  </si>
+  <si>
+    <t>mferraroni</t>
+  </si>
+  <si>
+    <t>lk</t>
+  </si>
+  <si>
+    <t>Praha</t>
+  </si>
+  <si>
+    <t>vACC-CZ</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>vACC Austria</t>
+  </si>
+  <si>
+    <t>lppc</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Portugal vACC</t>
+  </si>
+  <si>
+    <t>Bernardo Reis</t>
+  </si>
+  <si>
+    <t>becas22</t>
+  </si>
+  <si>
+    <t>lppo</t>
+  </si>
+  <si>
+    <t>Santa Maria</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>Romania vACC</t>
+  </si>
+  <si>
+    <t>Teodor Petrica</t>
+  </si>
+  <si>
+    <t>tgpetrica</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>Swiss</t>
+  </si>
+  <si>
+    <t>vACC Switzerland</t>
+  </si>
+  <si>
+    <t>Roman Wuest</t>
+  </si>
+  <si>
+    <t>wuestr</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>TRvACC</t>
+  </si>
+  <si>
+    <t>Gursel Alp</t>
+  </si>
+  <si>
+    <t>gurselalp</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>Chisinau</t>
+  </si>
+  <si>
+    <t>Moldova vACC</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Kieran Hardern</t>
+  </si>
+  <si>
+    <t>KHardern</t>
+  </si>
+  <si>
+    <t>lz</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>vACC Slovakia</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>Santo Domingo FIR</t>
+  </si>
+  <si>
+    <t>Jiancarlos Paredes</t>
+  </si>
+  <si>
+    <t>yancarlos4500</t>
+  </si>
+  <si>
+    <t>mg-mh-mn-mr-ms-mz</t>
+  </si>
+  <si>
+    <t>Cenamer</t>
+  </si>
+  <si>
+    <t>VATSIM CentroAmérica</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Kingston FIR</t>
+  </si>
+  <si>
+    <t>Njeri Caroo</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Maxatlan, Merida, Mexico, Monterrey</t>
+  </si>
+  <si>
+    <t>VATMEX</t>
+  </si>
+  <si>
+    <t>Gustavo Valdez</t>
+  </si>
+  <si>
+    <t>hatoriganzo</t>
+  </si>
+  <si>
+    <t>mmfo</t>
+  </si>
+  <si>
+    <t>Mazatlan Oceanic</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Havana FIR</t>
+  </si>
+  <si>
+    <t>Miguel Armas Jr.</t>
+  </si>
+  <si>
+    <t>miguelarmas</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>Gander Oceanic, Shanwick Oceanic</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>Rarotonga</t>
+  </si>
+  <si>
+    <t>VATNZ</t>
+  </si>
+  <si>
+    <t>Richard Bywater</t>
+  </si>
+  <si>
+    <t>rb-vatnz</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>Nadi</t>
+  </si>
+  <si>
+    <t>VATGlasses-Managed Oceanic</t>
+  </si>
+  <si>
+    <t>nodata</t>
+  </si>
+  <si>
+    <t>All not listed elsewhere</t>
+  </si>
+  <si>
+    <t>Default VATSpy boundaries and airports for non-participating FIRs</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Faleolo</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>Tahiti</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>Vila</t>
+  </si>
+  <si>
+    <t>VATAPAC Specialists</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>Tontouta</t>
+  </si>
+  <si>
+    <t>nz-ni</t>
+  </si>
+  <si>
+    <t>Auckland, Mac</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Arabian vACC</t>
+  </si>
+  <si>
+    <t>Luke Brown</t>
+  </si>
+  <si>
+    <t>luke11brown</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Khaleej vACC</t>
+  </si>
+  <si>
+    <t>Moiz Uddin</t>
+  </si>
+  <si>
+    <t>moiz-uddin99</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>U.A.E.</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>VATROC</t>
+  </si>
+  <si>
+    <t>Yanyu Dai</t>
+  </si>
+  <si>
+    <t>sayingdai</t>
+  </si>
+  <si>
+    <t>rj</t>
+  </si>
+  <si>
+    <t>Fukuoka</t>
+  </si>
+  <si>
+    <t>VATJPN</t>
+  </si>
+  <si>
+    <t>Yuta Goto</t>
+  </si>
+  <si>
+    <t>Jyumubo</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Comodoro Rivadavia, Cordoba, Ezeiza, Mendoza, Resistencia</t>
+  </si>
+  <si>
+    <t>VATSIM Argentina</t>
+  </si>
+  <si>
+    <t>Giuliano Viola</t>
+  </si>
+  <si>
+    <t>RulianV</t>
+  </si>
+  <si>
+    <t>sbao</t>
+  </si>
+  <si>
+    <t>Atlantico</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Antafogasta, Isla de Pascua, Puerto Montt, Punta Arenas, Santiago</t>
+  </si>
+  <si>
+    <t>vACC Did Not Respond</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>Falkland Islands/Islas Malvinas</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>vACC Inactive</t>
+  </si>
+  <si>
+    <t>sip</t>
+  </si>
+  <si>
+    <t>Simferopol</t>
+  </si>
+  <si>
+    <t>Ukraine &amp; Caucasus Shared Control</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>VATSur OpenSkies</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>ta-tb-td-tf-tg-tk-tl-tr-tt-tv</t>
+  </si>
+  <si>
+    <t>Piarco</t>
+  </si>
+  <si>
+    <t>Piarco FIR</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Curaçao FIR</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Caucasus ACC</t>
+  </si>
+  <si>
+    <t>Anton Nikolaev</t>
+  </si>
+  <si>
+    <t>AntonNikolaev1125</t>
+  </si>
+  <si>
+    <t>ud</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>uhmm</t>
+  </si>
+  <si>
+    <t>Magadan Oceanic</t>
+  </si>
+  <si>
+    <t>uiii</t>
+  </si>
+  <si>
+    <t>Irkutsk</t>
+  </si>
+  <si>
+    <t>ulll</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>St. Petersburg ACC</t>
+  </si>
+  <si>
+    <t>Ekaterina Romanova</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>Dnipro, Kyiv, L'viv, Odesa</t>
+  </si>
+  <si>
+    <t>vACC Ukraine</t>
+  </si>
+  <si>
+    <t>Oleksandr Semenchuk</t>
+  </si>
+  <si>
+    <t>sashase</t>
+  </si>
+  <si>
+    <t>unkl</t>
+  </si>
+  <si>
+    <t>Krasnoyarsk</t>
+  </si>
+  <si>
+    <t>unnt</t>
+  </si>
+  <si>
+    <t>Novosibirsk</t>
+  </si>
+  <si>
+    <t>VATRUS</t>
+  </si>
+  <si>
+    <t>Artem Ponomarov</t>
+  </si>
+  <si>
+    <t>banan1442</t>
+  </si>
+  <si>
+    <t>urrv</t>
+  </si>
+  <si>
+    <t>Rostov</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Chennai Oceanic, Mumbai Oceanic</t>
+  </si>
+  <si>
+    <t>vc-vr</t>
+  </si>
+  <si>
+    <t>Colombo, Male</t>
+  </si>
+  <si>
+    <t>vd-vl-vv</t>
+  </si>
+  <si>
+    <t>Phnom Penh, Vientiane, Hanoi, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>VCL vACC</t>
+  </si>
+  <si>
+    <t>Amos Ng</t>
+  </si>
+  <si>
+    <t>amosngSP</t>
+  </si>
+  <si>
+    <t>vh-vm</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hong Kong vACC</t>
+  </si>
+  <si>
+    <t>Tony Siu</t>
+  </si>
+  <si>
+    <t>Syntax505</t>
+  </si>
+  <si>
+    <t>vy</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>wa-wi</t>
+  </si>
+  <si>
+    <t>Jakarta, Ujung Padang</t>
+  </si>
+  <si>
+    <t>IDvACC</t>
+  </si>
+  <si>
+    <t>Johan Winarto</t>
+  </si>
+  <si>
+    <t>Johannnix</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Brisbane Oceanic, Melbourne Oceanic</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>China (PRC except Hong Kong &amp; Macau)</t>
+  </si>
+  <si>
+    <t>VATPRC</t>
+  </si>
+  <si>
+    <t>Rudi Zhang</t>
+  </si>
+  <si>
+    <t>RudiZhang</t>
+  </si>
+  <si>
+    <t>zab</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>ZAB vARTCC</t>
+  </si>
+  <si>
+    <t>Evan Bradley</t>
+  </si>
+  <si>
+    <t>abusivemilk</t>
+  </si>
+  <si>
+    <t>zak</t>
+  </si>
+  <si>
+    <t>Oakland Oceanic</t>
+  </si>
+  <si>
+    <t>ZOA vARTCC</t>
+  </si>
+  <si>
+    <t>Maxim Salikhov</t>
+  </si>
+  <si>
+    <t>zau</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>ZAU vARTCC</t>
+  </si>
+  <si>
+    <t>Joe Nyquist</t>
+  </si>
+  <si>
+    <t>Saluki00</t>
+  </si>
+  <si>
+    <t>zdv</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>ZDV vARTCC</t>
+  </si>
+  <si>
+    <t>Jonah Lefkoff</t>
+  </si>
+  <si>
+    <t>jlefkoff</t>
+  </si>
+  <si>
+    <t>zeg</t>
+  </si>
+  <si>
+    <t>Edmonton</t>
+  </si>
+  <si>
+    <t>ZEG vACC</t>
+  </si>
+  <si>
+    <t>Thomas Smith</t>
+  </si>
+  <si>
+    <t>czeg-fc</t>
+  </si>
+  <si>
+    <t>zhn</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>vHCF</t>
+  </si>
+  <si>
+    <t>Dirk Thorben Kottenhahn</t>
+  </si>
+  <si>
+    <t>SpectreLoki</t>
+  </si>
+  <si>
+    <t>zhu</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>ZHU vARTCC</t>
+  </si>
+  <si>
+    <t>Dave Wegner</t>
+  </si>
+  <si>
+    <t>jivebiscuit</t>
+  </si>
+  <si>
+    <t>zjx</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>ZJX vARTCC</t>
+  </si>
+  <si>
+    <t>Simon Ramirez</t>
+  </si>
+  <si>
+    <t>SRamire</t>
+  </si>
+  <si>
+    <t>zlc</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>ZLC vARTCC</t>
+  </si>
+  <si>
+    <t>Adam Earl</t>
+  </si>
+  <si>
+    <t>shadeddude</t>
+  </si>
+  <si>
+    <t>zm</t>
+  </si>
+  <si>
+    <t>Ulaanbaatar</t>
+  </si>
+  <si>
+    <t>zoa</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>zob</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>ZOB vARTCC</t>
+  </si>
+  <si>
+    <t>Tom Vachon</t>
+  </si>
+  <si>
+    <t>tomvachon</t>
+  </si>
+  <si>
+    <t>zqm-zqx</t>
+  </si>
+  <si>
+    <t>Gander, Moncton</t>
+  </si>
+  <si>
     <t>vACC Rejected Offer To Participate</t>
   </si>
   <si>
-    <t>hb-hr-ht</t>
-  </si>
-  <si>
-    <t>Dar-Es-Salaam</t>
-  </si>
-  <si>
-    <t>hc</t>
-  </si>
-  <si>
-    <t>Mogadishu</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>Egypt vACC</t>
-  </si>
-  <si>
-    <t>Kirollos Nashaat</t>
-  </si>
-  <si>
-    <t>kirollos</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>Asmara</t>
-  </si>
-  <si>
-    <t>hj-hs</t>
-  </si>
-  <si>
-    <t>Juba, Khartoum</t>
-  </si>
-  <si>
-    <t>hk</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>hl</t>
-  </si>
-  <si>
-    <t>Tripoli</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>Entebbe</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Bulgaria vACC</t>
-  </si>
-  <si>
-    <t>Kristian Karagyozov</t>
-  </si>
-  <si>
-    <t>KristianKaragyozov</t>
-  </si>
-  <si>
-    <t>lc</t>
-  </si>
-  <si>
-    <t>Nicosia</t>
-  </si>
-  <si>
-    <t>Hellenic vACC</t>
-  </si>
-  <si>
-    <t>Spyros Stavrakis</t>
-  </si>
-  <si>
-    <t>SpyrosTTK</t>
-  </si>
-  <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>Barcelona, Madrid</t>
-  </si>
-  <si>
-    <t>lf</t>
-  </si>
-  <si>
-    <t>Brest, Bordeaux, Marseilles, Paris, Rheims</t>
-  </si>
-  <si>
-    <t>French vACC</t>
-  </si>
-  <si>
-    <t>Corentin Zerbib</t>
-  </si>
-  <si>
-    <t>Pampah91</t>
-  </si>
-  <si>
-    <t>lg</t>
-  </si>
-  <si>
-    <t>Athinai, Makedonia</t>
-  </si>
-  <si>
-    <t>lh</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>vACCHUN</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>Brindisi, Milano, Padova, Roma</t>
-  </si>
-  <si>
-    <t>VATSIM Italy</t>
-  </si>
-  <si>
-    <t>Matteo Ferraroni</t>
-  </si>
-  <si>
-    <t>mferraroni</t>
-  </si>
-  <si>
-    <t>lk</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>vACC-CZ</t>
-  </si>
-  <si>
-    <t>lm</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>Wien</t>
-  </si>
-  <si>
-    <t>vACC Austria</t>
-  </si>
-  <si>
-    <t>lppc</t>
-  </si>
-  <si>
-    <t>Lisboa</t>
-  </si>
-  <si>
-    <t>Portugal vACC</t>
-  </si>
-  <si>
-    <t>Bernardo Reis</t>
-  </si>
-  <si>
-    <t>becas22</t>
-  </si>
-  <si>
-    <t>lppo</t>
-  </si>
-  <si>
-    <t>Santa Maria</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>Romania vACC</t>
-  </si>
-  <si>
-    <t>Teodor Petrica</t>
-  </si>
-  <si>
-    <t>tgpetrica</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>Swiss</t>
-  </si>
-  <si>
-    <t>vACC Switzerland</t>
-  </si>
-  <si>
-    <t>Roman Wuest</t>
-  </si>
-  <si>
-    <t>wuestr</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>Ankara</t>
-  </si>
-  <si>
-    <t>TRvACC</t>
-  </si>
-  <si>
-    <t>Gursel Alp</t>
-  </si>
-  <si>
-    <t>gurselalp</t>
-  </si>
-  <si>
-    <t>lu</t>
-  </si>
-  <si>
-    <t>Chisinau</t>
-  </si>
-  <si>
-    <t>Moldova vACC</t>
-  </si>
-  <si>
-    <t>lx</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Kieran Hardern</t>
-  </si>
-  <si>
-    <t>KHardern</t>
-  </si>
-  <si>
-    <t>lz</t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>vACC Slovakia</t>
-  </si>
-  <si>
-    <t>md</t>
-  </si>
-  <si>
-    <t>Santo Domingo FIR</t>
-  </si>
-  <si>
-    <t>Jiancarlos Paredes</t>
-  </si>
-  <si>
-    <t>yancarlos4500</t>
-  </si>
-  <si>
-    <t>mg-mh-mn-mr-ms-mz</t>
-  </si>
-  <si>
-    <t>Cenamer</t>
-  </si>
-  <si>
-    <t>VATSIM CentroAmérica</t>
-  </si>
-  <si>
-    <t>mk</t>
-  </si>
-  <si>
-    <t>Kingston</t>
-  </si>
-  <si>
-    <t>Kingston FIR</t>
-  </si>
-  <si>
-    <t>Njeri Caroo</t>
-  </si>
-  <si>
-    <t>mmfo</t>
-  </si>
-  <si>
-    <t>Mazatlan Oceanic</t>
-  </si>
-  <si>
-    <t>VATMEX</t>
-  </si>
-  <si>
-    <t>Gustavo Valdez</t>
-  </si>
-  <si>
-    <t>hatoriganzo</t>
-  </si>
-  <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>Havana</t>
-  </si>
-  <si>
-    <t>Havana FIR</t>
-  </si>
-  <si>
-    <t>Miguel Armas Jr.</t>
-  </si>
-  <si>
-    <t>miguelarmas</t>
-  </si>
-  <si>
-    <t>nat</t>
-  </si>
-  <si>
-    <t>Gander Oceanic, Shanwick Oceanic</t>
-  </si>
-  <si>
-    <t>VATGlasses-Managed Oceanic</t>
-  </si>
-  <si>
-    <t>nc</t>
-  </si>
-  <si>
-    <t>Rarotonga</t>
-  </si>
-  <si>
-    <t>VATNZ</t>
-  </si>
-  <si>
-    <t>Richard Bywater</t>
-  </si>
-  <si>
-    <t>rb-vatnz</t>
-  </si>
-  <si>
-    <t>nf</t>
-  </si>
-  <si>
-    <t>Nadi</t>
-  </si>
-  <si>
-    <t>nodata</t>
-  </si>
-  <si>
-    <t>All not listed elsewhere</t>
-  </si>
-  <si>
-    <t>Default VATSpy boundaries and airports for non-participating FIRs</t>
-  </si>
-  <si>
-    <t>ns</t>
-  </si>
-  <si>
-    <t>Faleolo</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
-    <t>Tahiti</t>
-  </si>
-  <si>
-    <t>nv</t>
-  </si>
-  <si>
-    <t>Vila</t>
-  </si>
-  <si>
-    <t>VATAPAC Specialists</t>
-  </si>
-  <si>
-    <t>nw</t>
-  </si>
-  <si>
-    <t>Tontouta</t>
-  </si>
-  <si>
-    <t>nz-ni</t>
-  </si>
-  <si>
-    <t>Auckland, Mac</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Arabian vACC</t>
-  </si>
-  <si>
-    <t>Luke Brown</t>
-  </si>
-  <si>
-    <t>luke11brown</t>
-  </si>
-  <si>
-    <t>om</t>
-  </si>
-  <si>
-    <t>Muscat</t>
-  </si>
-  <si>
-    <t>oo</t>
-  </si>
-  <si>
-    <t>U.A.E.</t>
-  </si>
-  <si>
-    <t>ot</t>
-  </si>
-  <si>
-    <t>Doha</t>
-  </si>
-  <si>
-    <t>rj</t>
-  </si>
-  <si>
-    <t>Tokyo Oceanic</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>Comodoro Rivadavia, Cordoba, Ezeiza, Mendoza, Resistencia</t>
-  </si>
-  <si>
-    <t>VATSIM Argentina</t>
-  </si>
-  <si>
-    <t>Giuliano Viola</t>
-  </si>
-  <si>
-    <t>RulianV</t>
-  </si>
-  <si>
-    <t>sbao</t>
-  </si>
-  <si>
-    <t>Atlantico</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>Antafogasta, Isla de Pascua, Puerto Montt, Punta Arenas, Santiago</t>
-  </si>
-  <si>
-    <t>vACC Did Not Respond</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>Guayaquil</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>Falkland Islands/Islas Malvinas</t>
-  </si>
-  <si>
-    <t>sg</t>
-  </si>
-  <si>
-    <t>Asunción</t>
-  </si>
-  <si>
-    <t>vACC Inactive</t>
-  </si>
-  <si>
-    <t>sip</t>
-  </si>
-  <si>
-    <t>Simferopol</t>
-  </si>
-  <si>
-    <t>Ukraine &amp; Caucasus Shared Control</t>
-  </si>
-  <si>
-    <t>sm</t>
-  </si>
-  <si>
-    <t>Paramaribo</t>
-  </si>
-  <si>
-    <t>VATSur OpenSkies</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>Cayenne</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>Montevideo</t>
-  </si>
-  <si>
-    <t>sy</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>ta-tb-td-tf-tg-tk-tl-tr-tt-tv</t>
-  </si>
-  <si>
-    <t>Piarco</t>
-  </si>
-  <si>
-    <t>Piarco FIR</t>
-  </si>
-  <si>
-    <t>tn</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Curaçao FIR</t>
-  </si>
-  <si>
-    <t>ub</t>
-  </si>
-  <si>
-    <t>Baku</t>
-  </si>
-  <si>
-    <t>Caucasus ACC</t>
-  </si>
-  <si>
-    <t>Anton Nikolaev</t>
-  </si>
-  <si>
-    <t>AntonNikolaev1125</t>
-  </si>
-  <si>
-    <t>ud</t>
-  </si>
-  <si>
-    <t>Yerevan</t>
-  </si>
-  <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>Tbilisi</t>
-  </si>
-  <si>
-    <t>uhmm</t>
-  </si>
-  <si>
-    <t>Magadan Oceanic</t>
-  </si>
-  <si>
-    <t>uiii</t>
-  </si>
-  <si>
-    <t>Irkutsk</t>
-  </si>
-  <si>
-    <t>ulll</t>
-  </si>
-  <si>
-    <t>St. Petersburg</t>
-  </si>
-  <si>
-    <t>St. Petersburg ACC</t>
-  </si>
-  <si>
-    <t>Ekaterina Romanova</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>Dnipro, Kyiv, L'viv, Odesa</t>
-  </si>
-  <si>
-    <t>vACC Ukraine</t>
-  </si>
-  <si>
-    <t>Oleksandr Semenchuk</t>
-  </si>
-  <si>
-    <t>sashase</t>
-  </si>
-  <si>
-    <t>unkl</t>
-  </si>
-  <si>
-    <t>Krasnoyarsk</t>
-  </si>
-  <si>
-    <t>unnt</t>
-  </si>
-  <si>
-    <t>Novosibirsk</t>
-  </si>
-  <si>
-    <t>VATRUS</t>
-  </si>
-  <si>
-    <t>Artem Ponomarov</t>
-  </si>
-  <si>
-    <t>banan1442</t>
-  </si>
-  <si>
-    <t>urrv</t>
-  </si>
-  <si>
-    <t>Rostov</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>Chennai Oceanic, Mumbai Oceanic</t>
-  </si>
-  <si>
-    <t>vc-vr</t>
-  </si>
-  <si>
-    <t>Colombo, Male</t>
-  </si>
-  <si>
-    <t>vd-vl-vv</t>
-  </si>
-  <si>
-    <t>Phnom Penh, Vientiane, Hanoi, Ho Chi Minh</t>
-  </si>
-  <si>
-    <t>VCL vACC</t>
-  </si>
-  <si>
-    <t>Amos Ng</t>
-  </si>
-  <si>
-    <t>amosngSP</t>
-  </si>
-  <si>
-    <t>vh-vm</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Hong Kong vACC</t>
-  </si>
-  <si>
-    <t>Tony Siu</t>
-  </si>
-  <si>
-    <t>Syntax505</t>
-  </si>
-  <si>
-    <t>vy</t>
-  </si>
-  <si>
-    <t>Yangon</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Brisbane Oceanic, Melbourne Oceanic</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Mainland China</t>
-  </si>
-  <si>
-    <t>VATPRC</t>
-  </si>
-  <si>
-    <t>Rudi Zhang</t>
-  </si>
-  <si>
-    <t>RudiZhang</t>
-  </si>
-  <si>
-    <t>zab</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>ZAB vARTCC</t>
-  </si>
-  <si>
-    <t>Evan Bradley</t>
-  </si>
-  <si>
-    <t>abusivemilk</t>
-  </si>
-  <si>
-    <t>zak</t>
-  </si>
-  <si>
-    <t>Oakland Oceanic</t>
-  </si>
-  <si>
-    <t>ZOA vARTCC</t>
-  </si>
-  <si>
-    <t>Maxim Salikhov</t>
-  </si>
-  <si>
-    <t>zau</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>ZAU vARTCC</t>
-  </si>
-  <si>
-    <t>Joe Nyquist</t>
-  </si>
-  <si>
-    <t>Saluki00</t>
-  </si>
-  <si>
-    <t>zeg</t>
-  </si>
-  <si>
-    <t>Edmonton</t>
-  </si>
-  <si>
-    <t>ZEG vACC</t>
-  </si>
-  <si>
-    <t>Thomas Smith</t>
-  </si>
-  <si>
-    <t>czeg-fc</t>
-  </si>
-  <si>
-    <t>zhu</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>ZHU vARTCC</t>
-  </si>
-  <si>
-    <t>Dave Wegner</t>
-  </si>
-  <si>
-    <t>jivebiscuit</t>
-  </si>
-  <si>
-    <t>zjx</t>
-  </si>
-  <si>
-    <t>Jacksonville</t>
-  </si>
-  <si>
-    <t>ZJX vARTCC</t>
-  </si>
-  <si>
-    <t>Simon Ramirez</t>
-  </si>
-  <si>
-    <t>SRamire</t>
-  </si>
-  <si>
-    <t>zlc</t>
-  </si>
-  <si>
-    <t>Salt Lake City</t>
-  </si>
-  <si>
-    <t>ZLC vARTCC</t>
-  </si>
-  <si>
-    <t>Adam Earl</t>
-  </si>
-  <si>
-    <t>shadeddude</t>
-  </si>
-  <si>
-    <t>zm</t>
-  </si>
-  <si>
-    <t>Ulaanbaatar</t>
-  </si>
-  <si>
-    <t>zoa</t>
-  </si>
-  <si>
-    <t>Oakland</t>
-  </si>
-  <si>
-    <t>zob</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>ZOB vARTCC</t>
-  </si>
-  <si>
-    <t>Tom Vachon</t>
-  </si>
-  <si>
-    <t>tomvachon</t>
-  </si>
-  <si>
-    <t>zqm-zqx</t>
-  </si>
-  <si>
-    <t>Gander, Moncton</t>
-  </si>
-  <si>
     <t>zse</t>
   </si>
   <si>
@@ -1287,12 +1377,27 @@
     <t>freilly95</t>
   </si>
   <si>
+    <t>zua</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
     <t>zul</t>
   </si>
   <si>
     <t>Montreal</t>
   </si>
   <si>
+    <t>ZUL vACC</t>
+  </si>
+  <si>
+    <t>Alexandre Dufresne</t>
+  </si>
+  <si>
+    <t>Mistadouf</t>
+  </si>
+  <si>
     <t>zvr</t>
   </si>
   <si>
@@ -1321,6 +1426,12 @@
   </si>
   <si>
     <t>Toronto</t>
+  </si>
+  <si>
+    <t>Zihao Zhuo</t>
+  </si>
+  <si>
+    <t>nuclearjet</t>
   </si>
   <si>
     <t>Area managers without a GitHub account should contact a member of the VATGlasses Team to add updates to the Live &amp; Beta sites. If you'd like to add an area which isn't listed or are responsible for a VATGlasses-managed area, please contact our team for access to the repository.</t>
@@ -2260,16 +2371,16 @@
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>132</v>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
@@ -2283,69 +2394,69 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>132</v>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>132</v>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>132</v>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
@@ -2359,10 +2470,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
@@ -2373,10 +2484,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -2390,44 +2501,44 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>123</v>
@@ -2441,47 +2552,47 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>88</v>
@@ -2492,60 +2603,60 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C57" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>88</v>
@@ -2556,132 +2667,132 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="D64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
@@ -2692,178 +2803,181 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="3" t="s">
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="4" t="s">
+      <c r="B71" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="4" t="s">
+      <c r="C74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="1" t="s">
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="76" ht="28.5" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" ht="28.5" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="4" t="s">
+      <c r="C77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B77" s="4" t="s">
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>247</v>
@@ -2876,639 +2990,644 @@
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>270</v>
+      <c r="C82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>244</v>
+      <c r="E86" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="A87" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="C87" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>244</v>
+      <c r="D88" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="2" t="s">
         <v>288</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>301</v>
+        <v>54</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" s="2"/>
+      <c r="A98" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="A101" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="A102" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>244</v>
+        <v>331</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" ht="28.5" customHeight="1">
+        <v>331</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" ht="28.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E108" s="3" t="s">
         <v>342</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>348</v>
+      <c r="A111" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>288</v>
+        <v>354</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="A114" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>244</v>
+        <v>366</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="4" t="s">
-        <v>363</v>
+      <c r="A116" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>374</v>
+      <c r="A118" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E118" s="3"/>
+        <v>378</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="A119" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="B119" s="1" t="s">
         <v>381</v>
       </c>
+      <c r="C119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3539,10 +3658,10 @@
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -3551,222 +3670,324 @@
       <c r="D122" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>396</v>
-      </c>
+      <c r="E122" s="3"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E123" s="3" t="s">
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="4" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>261</v>
+      <c r="D124" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E125" s="2"/>
+      <c r="A125" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>22</v>
+        <v>418</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>419</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>413</v>
+      <c r="A128" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A131" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>70</v>
+      <c r="A132" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>244</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C134" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" ht="28.5" customHeight="1">
-      <c r="A136" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="B138" s="1"/>
+      <c r="D138" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="B139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="B140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="B141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="B143" s="1"/>
+    <row r="143" ht="28.5" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="B144" s="1"/>
@@ -6366,8 +6587,29 @@
     <row r="1009" ht="14.25" customHeight="1">
       <c r="B1009" s="1"/>
     </row>
+    <row r="1010" ht="14.25" customHeight="1">
+      <c r="B1010" s="1"/>
+    </row>
+    <row r="1011" ht="14.25" customHeight="1">
+      <c r="B1011" s="1"/>
+    </row>
+    <row r="1012" ht="14.25" customHeight="1">
+      <c r="B1012" s="1"/>
+    </row>
+    <row r="1013" ht="14.25" customHeight="1">
+      <c r="B1013" s="1"/>
+    </row>
+    <row r="1014" ht="14.25" customHeight="1">
+      <c r="B1014" s="1"/>
+    </row>
+    <row r="1015" ht="14.25" customHeight="1">
+      <c r="B1015" s="1"/>
+    </row>
+    <row r="1016" ht="14.25" customHeight="1">
+      <c r="B1016" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="34">
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -6376,36 +6618,32 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D106:E106"/>
     <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D119:E119"/>
     <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
     <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D138:E138"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -825,6 +825,27 @@
     <t>Bahrain</t>
   </si>
   <si>
+    <t>Khaleej vACC</t>
+  </si>
+  <si>
+    <t>Moiz Uddin</t>
+  </si>
+  <si>
+    <t>moiz-uddin99</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
     <t>Arabian vACC</t>
   </si>
   <si>
@@ -832,27 +853,6 @@
   </si>
   <si>
     <t>luke11brown</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Khaleej vACC</t>
-  </si>
-  <si>
-    <t>Moiz Uddin</t>
-  </si>
-  <si>
-    <t>moiz-uddin99</t>
-  </si>
-  <si>
-    <t>om</t>
-  </si>
-  <si>
-    <t>Muscat</t>
   </si>
   <si>
     <t>oo</t>
@@ -1468,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1477,12 +1477,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1738,10 +1732,10 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1922,10 +1916,10 @@
       <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2024,10 +2018,10 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2038,7 +2032,7 @@
       <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="2"/>
@@ -2062,7 +2056,7 @@
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2113,7 +2107,7 @@
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2371,7 +2365,7 @@
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2402,7 +2396,7 @@
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2433,7 +2427,7 @@
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2447,7 +2441,7 @@
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2802,22 +2796,22 @@
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2847,19 +2841,19 @@
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2870,21 +2864,21 @@
       <c r="B71" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2917,21 +2911,21 @@
       <c r="B74" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2973,10 +2967,10 @@
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3007,10 +3001,10 @@
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3021,10 +3015,10 @@
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3035,7 +3029,7 @@
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3052,104 +3046,104 @@
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="E85" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>271</v>
+      <c r="C86" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>271</v>
+      <c r="C87" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3157,16 +3151,16 @@
       <c r="A89" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3239,10 +3233,10 @@
       <c r="C94" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3331,25 +3325,25 @@
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D102" s="2"/>
@@ -3489,13 +3483,13 @@
       <c r="B111" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3531,13 +3525,13 @@
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -3593,19 +3587,19 @@
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3624,10 +3618,10 @@
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3664,45 +3658,45 @@
       <c r="B122" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E122" s="3"/>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3724,19 +3718,19 @@
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -3758,36 +3752,36 @@
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>430</v>
       </c>
     </row>
@@ -3806,34 +3800,34 @@
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3855,21 +3849,21 @@
       <c r="A134" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -3886,19 +3880,19 @@
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -3909,13 +3903,13 @@
       <c r="B137" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>459</v>
       </c>
     </row>
@@ -3974,10 +3968,10 @@
       <c r="C141" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>471</v>
       </c>
     </row>
@@ -3985,7 +3979,7 @@
       <c r="B142" s="1"/>
     </row>
     <row r="143" ht="28.5" customHeight="1">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="3" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6631,19 +6625,19 @@
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A143:E143"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D110:E110"/>
     <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A143:E143"/>
     <mergeCell ref="D114:E114"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D138:E138"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Owners.xlsx
+++ b/Owners.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VATSIM\GIT\vatglasses-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741552B-1E7C-42F7-9756-11711328D5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="i3WXlYBHLiMmkLsyWpzDCCCycp3FHYisiCVbuo7qsbQ="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="483">
   <si>
     <t>Set</t>
   </si>
@@ -1435,21 +1444,51 @@
   </si>
   <si>
     <t>Area managers without a GitHub account should contact a member of the VATGlasses Team to add updates to the Live &amp; Beta sites. If you'd like to add an area which isn't listed or are responsible for a VATGlasses-managed area, please contact our team for access to the repository.</t>
+  </si>
+  <si>
+    <t>sbaz</t>
+  </si>
+  <si>
+    <t>sbbs</t>
+  </si>
+  <si>
+    <t>sbcw</t>
+  </si>
+  <si>
+    <t>sbre</t>
+  </si>
+  <si>
+    <t>Amazonico</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Vatbrz</t>
+  </si>
+  <si>
+    <t>VATBRZ Operations Department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1459,42 +1498,58 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1684,28 +1739,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1020"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.43"/>
-    <col customWidth="1" min="2" max="2" width="69.43"/>
-    <col customWidth="1" min="3" max="3" width="17.43"/>
-    <col customWidth="1" min="4" max="5" width="35.14"/>
-    <col customWidth="1" min="6" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="26" width="9.0"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="5" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1739,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1783,11 +1840,12 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1821,7 +1879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,7 +1896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1855,7 +1913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +1930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1889,7 +1947,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1906,7 +1964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1923,7 +1981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +1998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1957,7 +2015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1974,7 +2032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1991,7 +2049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -2008,7 +2066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2025,7 +2083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -2038,7 +2096,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" ht="28.5" customHeight="1">
+    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -2055,7 +2113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2072,7 +2130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2089,7 +2147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2106,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
@@ -2123,7 +2181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>98</v>
       </c>
@@ -2140,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -2157,7 +2215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -2174,7 +2232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -2191,7 +2249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -2208,7 +2266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -2218,11 +2276,12 @@
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>111</v>
       </c>
@@ -2232,11 +2291,12 @@
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -2253,7 +2313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -2270,7 +2330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -2287,7 +2347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
@@ -2304,7 +2364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
@@ -2321,7 +2381,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>126</v>
       </c>
@@ -2338,7 +2398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
@@ -2355,7 +2415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -2365,11 +2425,12 @@
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
@@ -2386,7 +2447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>134</v>
       </c>
@@ -2396,11 +2457,12 @@
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -2417,7 +2479,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
@@ -2427,11 +2489,12 @@
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -2441,11 +2504,12 @@
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
@@ -2462,7 +2526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -2472,11 +2536,12 @@
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
@@ -2493,7 +2558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
@@ -2510,7 +2575,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>156</v>
       </c>
@@ -2527,7 +2592,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>161</v>
       </c>
@@ -2544,7 +2609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>163</v>
       </c>
@@ -2561,7 +2626,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>168</v>
       </c>
@@ -2578,7 +2643,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>170</v>
       </c>
@@ -2595,7 +2660,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>173</v>
       </c>
@@ -2612,7 +2677,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>178</v>
       </c>
@@ -2625,7 +2690,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>181</v>
       </c>
@@ -2642,7 +2707,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>183</v>
       </c>
@@ -2659,7 +2724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>186</v>
       </c>
@@ -2676,7 +2741,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>191</v>
       </c>
@@ -2693,7 +2758,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>193</v>
       </c>
@@ -2710,7 +2775,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>198</v>
       </c>
@@ -2727,7 +2792,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>203</v>
       </c>
@@ -2744,7 +2809,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>208</v>
       </c>
@@ -2761,7 +2826,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>211</v>
       </c>
@@ -2778,7 +2843,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -2795,7 +2860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>218</v>
       </c>
@@ -2810,7 +2875,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>222</v>
       </c>
@@ -2823,7 +2888,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>225</v>
       </c>
@@ -2840,7 +2905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
@@ -2857,7 +2922,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>234</v>
       </c>
@@ -2874,7 +2939,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>236</v>
       </c>
@@ -2887,7 +2952,7 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>238</v>
       </c>
@@ -2904,7 +2969,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>243</v>
       </c>
@@ -2921,7 +2986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>245</v>
       </c>
@@ -2938,7 +3003,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>250</v>
       </c>
@@ -2948,11 +3013,12 @@
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="77" ht="28.5" customHeight="1">
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>253</v>
       </c>
@@ -2962,11 +3028,12 @@
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>256</v>
       </c>
@@ -2983,7 +3050,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>258</v>
       </c>
@@ -3000,7 +3067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>260</v>
       </c>
@@ -3010,11 +3077,12 @@
       <c r="C80" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>263</v>
       </c>
@@ -3024,11 +3092,12 @@
       <c r="C81" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>265</v>
       </c>
@@ -3045,7 +3114,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>267</v>
       </c>
@@ -3062,7 +3131,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>272</v>
       </c>
@@ -3079,7 +3148,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>274</v>
       </c>
@@ -3096,7 +3165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>279</v>
       </c>
@@ -3113,7 +3182,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>281</v>
       </c>
@@ -3130,7 +3199,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>283</v>
       </c>
@@ -3147,7 +3216,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>288</v>
       </c>
@@ -3164,7 +3233,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>293</v>
       </c>
@@ -3181,7 +3250,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>298</v>
       </c>
@@ -3189,3459 +3258,3546 @@
         <v>299</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
+        <v>481</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
+      <c r="D96" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
+      <c r="D97" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
+      <c r="D99" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="1" t="s">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="1" t="s">
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="1" t="s">
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="1" t="s">
+    <row r="108" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="1" t="s">
+    <row r="109" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="1" t="s">
+    <row r="110" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" ht="28.5" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
+        <v>348</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="1" t="s">
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="1" t="s">
+    <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="1" t="s">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="1" t="s">
+    <row r="125" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="1" t="s">
+    <row r="126" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="1" t="s">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="1" t="s">
+    <row r="128" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="1" t="s">
+    <row r="129" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="1" t="s">
+    <row r="130" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="1" t="s">
+    <row r="131" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="1" t="s">
+    <row r="132" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="1" t="s">
+    <row r="133" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="1" t="s">
+    <row r="134" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="1" t="s">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="1" t="s">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="1" t="s">
+    <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D137" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="1" t="s">
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="1" t="s">
+    <row r="139" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="1" t="s">
+    <row r="140" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="1" t="s">
+    <row r="141" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="1" t="s">
+    <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="1" t="s">
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="1" t="s">
+    <row r="144" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="1" t="s">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" ht="28.5" customHeight="1">
-      <c r="A143" s="3" t="s">
+    <row r="146" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="1"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="1"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="1"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="1"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="1"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="1"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="1"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="1"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="1"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="1"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="1"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="1"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="1"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="1"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="1"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="1"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="1"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="1"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="1"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="1"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="1"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="1"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="1"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="1"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="1"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="1"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="1"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="1"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="1"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="1"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="1"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="1"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="1"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="1"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="1"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="1"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="1"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="1"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="1"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="1"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="1"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="1"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="1"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="1"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="1"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="1"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="1"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="1"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="1"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="1"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="1"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="1"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="1"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="1"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="1"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="1"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="1"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="1"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="1"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="1"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="1"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="1"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="1"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="1"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="1"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="1"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="1"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="1"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="1"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="1"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="1"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="1"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="1"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="1"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="1"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="1"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="1"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="1"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="1"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="1"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="1"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="1"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="1"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="1"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="1"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="1"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="1"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="1"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="1"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="1"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="1"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="1"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="1"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="1"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="1"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="1"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="1"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="1"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="1"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="1"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="1"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="1"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="1"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="1"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="1"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="1"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="1"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="1"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="1"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="1"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="1"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="1"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="1"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="1"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="1"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="1"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="1"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="1"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="1"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="1"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="1"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="1"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="1"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="1"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="1"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="1"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="1"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="1"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="1"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="1"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="1"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="1"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="1"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="1"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="1"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="1"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="1"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="1"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="1"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="1"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="1"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="1"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="1"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="1"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="1"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="1"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="1"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="1"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="1"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="1"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="1"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="1"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="1"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="1"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="1"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="1"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="1"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="1"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="1"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="1"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="1"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="1"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="1"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="1"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="1"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="1"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="1"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="1"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="1"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="1"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="1"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="1"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="1"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="1"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="1"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="1"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="1"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="1"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="1"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="1"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="1"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="1"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="1"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="1"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="1"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="1"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="1"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="1"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="1"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="1"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="1"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="1"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="1"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="1"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="1"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="1"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="1"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="1"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="1"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="1"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="1"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="1"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="1"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="1"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="1"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="1"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="1"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="1"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="1"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="1"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="1"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="1"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="1"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="1"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="1"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="1"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="1"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="1"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="1"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="1"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="1"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="1"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="1"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="1"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="1"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="1"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="1"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="1"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="1"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="1"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="1"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="1"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="1"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="1"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="1"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="1"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="1"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="1"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="1"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="1"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="1"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="1"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="1"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="1"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="1"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="1"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="1"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="1"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="1"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="1"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="1"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="1"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="1"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="1"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="1"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="1"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="1"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="1"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="1"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="1"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="1"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="1"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="1"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="1"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B705" s="1"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="1"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="1"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="1"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="1"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="1"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B713" s="1"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B714" s="1"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="1"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B716" s="1"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="1"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="1"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="1"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="1"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="1"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="1"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="1"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B727" s="1"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B728" s="1"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B729" s="1"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B730" s="1"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B731" s="1"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B732" s="1"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B733" s="1"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B734" s="1"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="1"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B736" s="1"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B737" s="1"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B738" s="1"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B739" s="1"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B740" s="1"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B741" s="1"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B742" s="1"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B743" s="1"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B744" s="1"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B745" s="1"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B747" s="1"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B748" s="1"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B749" s="1"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B750" s="1"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B751" s="1"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B752" s="1"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B753" s="1"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B754" s="1"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B755" s="1"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B756" s="1"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B757" s="1"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B758" s="1"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B759" s="1"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B760" s="1"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B761" s="1"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B762" s="1"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B763" s="1"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B764" s="1"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B765" s="1"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B766" s="1"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B767" s="1"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B768" s="1"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B769" s="1"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B770" s="1"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B771" s="1"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B772" s="1"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B773" s="1"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B774" s="1"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B775" s="1"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B776" s="1"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B777" s="1"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B778" s="1"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B779" s="1"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B780" s="1"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B781" s="1"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B782" s="1"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B783" s="1"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B784" s="1"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B785" s="1"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B786" s="1"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B787" s="1"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B788" s="1"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B789" s="1"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B798" s="1"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B799" s="1"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="1"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="1"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="1"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B803" s="1"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B804" s="1"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B805" s="1"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B806" s="1"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B807" s="1"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B808" s="1"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B809" s="1"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B810" s="1"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B811" s="1"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B812" s="1"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B813" s="1"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B814" s="1"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B815" s="1"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B816" s="1"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B817" s="1"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B818" s="1"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B819" s="1"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B820" s="1"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B821" s="1"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B822" s="1"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B823" s="1"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B824" s="1"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B825" s="1"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B826" s="1"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B827" s="1"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B828" s="1"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B829" s="1"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B830" s="1"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B831" s="1"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B832" s="1"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B833" s="1"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B834" s="1"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B835" s="1"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B836" s="1"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B837" s="1"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B838" s="1"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B839" s="1"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B840" s="1"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B841" s="1"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B842" s="1"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B843" s="1"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B844" s="1"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B845" s="1"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B846" s="1"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B847" s="1"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B848" s="1"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B849" s="1"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B850" s="1"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B852" s="1"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B853" s="1"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B855" s="1"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B856" s="1"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B857" s="1"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B858" s="1"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B859" s="1"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B860" s="1"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B861" s="1"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B863" s="1"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B864" s="1"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B865" s="1"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B866" s="1"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B867" s="1"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B868" s="1"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B869" s="1"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B870" s="1"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B871" s="1"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B872" s="1"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B873" s="1"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B874" s="1"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B875" s="1"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B876" s="1"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B877" s="1"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B878" s="1"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B879" s="1"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B880" s="1"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B881" s="1"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B882" s="1"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B883" s="1"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B884" s="1"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B885" s="1"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B886" s="1"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B887" s="1"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B888" s="1"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B889" s="1"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B890" s="1"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B891" s="1"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B892" s="1"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B893" s="1"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B894" s="1"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B895" s="1"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B896" s="1"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B897" s="1"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B898" s="1"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B899" s="1"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B900" s="1"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B901" s="1"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B902" s="1"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B903" s="1"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B904" s="1"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B905" s="1"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B912" s="1"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B913" s="1"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B916" s="1"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B917" s="1"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B918" s="1"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B920" s="1"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B921" s="1"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B922" s="1"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B923" s="1"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B924" s="1"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B925" s="1"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B926" s="1"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B928" s="1"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B929" s="1"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B930" s="1"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B931" s="1"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B932" s="1"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B933" s="1"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B934" s="1"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B935" s="1"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B936" s="1"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B937" s="1"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B938" s="1"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B939" s="1"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B940" s="1"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B941" s="1"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B942" s="1"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B943" s="1"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B944" s="1"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B945" s="1"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B946" s="1"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B947" s="1"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B948" s="1"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B949" s="1"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B950" s="1"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B951" s="1"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B952" s="1"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B953" s="1"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B954" s="1"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B955" s="1"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B956" s="1"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B957" s="1"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B958" s="1"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B959" s="1"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B960" s="1"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B961" s="1"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B962" s="1"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B963" s="1"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B964" s="1"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B965" s="1"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B966" s="1"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B967" s="1"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B968" s="1"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B969" s="1"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B970" s="1"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B971" s="1"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B972" s="1"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B973" s="1"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B974" s="1"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B975" s="1"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B976" s="1"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B977" s="1"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B978" s="1"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B979" s="1"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B980" s="1"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B981" s="1"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B982" s="1"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B983" s="1"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B984" s="1"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B985" s="1"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B986" s="1"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B987" s="1"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B988" s="1"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B989" s="1"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B990" s="1"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B991" s="1"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B992" s="1"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B993" s="1"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B994" s="1"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B996" s="1"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B997" s="1"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B998" s="1"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B999" s="1"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1000" s="1"/>
     </row>
-    <row r="1001" ht="14.25" customHeight="1">
+    <row r="1001" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1001" s="1"/>
     </row>
-    <row r="1002" ht="14.25" customHeight="1">
+    <row r="1002" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1002" s="1"/>
     </row>
-    <row r="1003" ht="14.25" customHeight="1">
+    <row r="1003" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1003" s="1"/>
     </row>
-    <row r="1004" ht="14.25" customHeight="1">
+    <row r="1004" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1004" s="1"/>
     </row>
-    <row r="1005" ht="14.25" customHeight="1">
+    <row r="1005" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
     </row>
-    <row r="1006" ht="14.25" customHeight="1">
+    <row r="1006" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1006" s="1"/>
     </row>
-    <row r="1007" ht="14.25" customHeight="1">
+    <row r="1007" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1007" s="1"/>
     </row>
-    <row r="1008" ht="14.25" customHeight="1">
+    <row r="1008" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1008" s="1"/>
     </row>
-    <row r="1009" ht="14.25" customHeight="1">
+    <row r="1009" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1009" s="1"/>
     </row>
-    <row r="1010" ht="14.25" customHeight="1">
+    <row r="1010" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1010" s="1"/>
     </row>
-    <row r="1011" ht="14.25" customHeight="1">
+    <row r="1011" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1011" s="1"/>
     </row>
-    <row r="1012" ht="14.25" customHeight="1">
+    <row r="1012" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1012" s="1"/>
     </row>
-    <row r="1013" ht="14.25" customHeight="1">
+    <row r="1013" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1013" s="1"/>
     </row>
-    <row r="1014" ht="14.25" customHeight="1">
+    <row r="1014" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1014" s="1"/>
     </row>
-    <row r="1015" ht="14.25" customHeight="1">
+    <row r="1015" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1015" s="1"/>
     </row>
-    <row r="1016" ht="14.25" customHeight="1">
+    <row r="1016" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1016" s="1"/>
     </row>
+    <row r="1017" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1017" s="1"/>
+    </row>
+    <row r="1018" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1018" s="1"/>
+    </row>
+    <row r="1019" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1019" s="1"/>
+    </row>
+    <row r="1020" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1020" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="38">
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D117:E117"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>